--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="237">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -833,23 +833,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -858,13 +841,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -884,6 +867,9 @@
       <c r="D1" s="2" t="n">
         <v>45785</v>
       </c>
+      <c r="E1" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -898,6 +884,9 @@
       <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -912,6 +901,9 @@
       <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -926,6 +918,9 @@
       <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -940,6 +935,9 @@
       <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -954,6 +952,9 @@
       <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -968,6 +969,9 @@
       <c r="D7" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -982,6 +986,9 @@
       <c r="D8" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -996,6 +1003,9 @@
       <c r="D9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -1010,6 +1020,9 @@
       <c r="D10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E10" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1024,6 +1037,9 @@
       <c r="D11" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1038,6 +1054,9 @@
       <c r="D12" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -1052,6 +1071,9 @@
       <c r="D13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E13" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -1066,6 +1088,9 @@
       <c r="D14" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1080,6 +1105,9 @@
       <c r="D15" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E15" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -1094,6 +1122,9 @@
       <c r="D16" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E16" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -1108,6 +1139,9 @@
       <c r="D17" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1122,6 +1156,9 @@
       <c r="D18" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1136,6 +1173,9 @@
       <c r="D19" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E19" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -1150,6 +1190,9 @@
       <c r="D20" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -1164,6 +1207,9 @@
       <c r="D21" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E21" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -1178,6 +1224,9 @@
       <c r="D22" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E22" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1192,6 +1241,9 @@
       <c r="D23" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E23" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -1206,6 +1258,9 @@
       <c r="D24" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -1220,6 +1275,9 @@
       <c r="D25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -1234,6 +1292,9 @@
       <c r="D26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -1246,6 +1307,9 @@
         <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1271,15 +1335,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1794,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -2587,13 +2655,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
@@ -3253,13 +3321,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>

--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -13,6 +13,11 @@
     <sheet name="1-volt Amp" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2-volt multi" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="3-amp multi" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="1-Recup" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="2-recup" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="3-recup" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="4-Thevenin- positivos" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="positivos" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="284">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -281,18 +286,27 @@
     <t xml:space="preserve">1-volt y amp</t>
   </si>
   <si>
+    <t xml:space="preserve">Recup</t>
+  </si>
+  <si>
     <t xml:space="preserve">2- vol multi</t>
   </si>
   <si>
     <t xml:space="preserve">3-amp multi</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Thev y Nor</t>
-  </si>
-  <si>
     <t xml:space="preserve">positivos</t>
   </si>
   <si>
+    <t xml:space="preserve">3+positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -302,9 +316,6 @@
     <t xml:space="preserve">Calificación/10,00</t>
   </si>
   <si>
-    <t xml:space="preserve">promedio</t>
-  </si>
-  <si>
     <t xml:space="preserve">segundo</t>
   </si>
   <si>
@@ -735,15 +746,151 @@
   </si>
   <si>
     <t xml:space="preserve">27 de abril de 2025  20:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total notas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/9,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 1 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 2 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 3 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 4 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 5 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 6 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 7 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 8 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 9 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  20:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 de mayo de 2025  23:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  14:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 de mayo de 2025  23:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  13:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  14:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 de mayo de 2025  23:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 1 /1,67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 2 /8,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 de abril de 2025  19:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 de abril de 2025  19:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 de abril de 2025  19:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 de abril de 2025  19:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 33 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 de abril de 2025  19:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 de abril de 2025  19:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thevenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -769,12 +916,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -811,7 +964,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -824,6 +977,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,6 +994,98 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -843,11 +1096,11 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -1330,24 +1583,555 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>-620088</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">SUM(C2:G2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">SUM(C3:G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">SUM(C4:G4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">SUM(C5:G5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">SUM(C6:G6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">SUM(C7:G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">SUM(C8:G8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">SUM(C9:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">SUM(C10:G10)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">SUM(C11:G11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">SUM(C12:G12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">SUM(C13:G13)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">SUM(C14:G14)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">SUM(C15:G15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">SUM(C16:G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">SUM(C17:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">SUM(C18:G18)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">SUM(C19:G19)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">SUM(C20:G20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">SUM(C21:G21)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">SUM(C22:G22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">SUM(C23:G23)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">SUM(C24:G24)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">SUM(C25:G25)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">SUM(C26:G26)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">SUM(C27:G27)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C27,"&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">COUNTIF(D2:D27,"&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E27,"&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F27,"&gt;0")</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,10 +2151,25 @@
         <v>86</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>88</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,8 +2182,26 @@
       <c r="C2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">G2+I2/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C2,E2,J2),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,8 +2214,26 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">G3+I3/2</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C3,E3,J3),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,8 +2246,26 @@
       <c r="C4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">G4+I4/2</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C4,E4,J4),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,8 +2278,26 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">G5+I5/2</f>
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C5,E5,J5),0)</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,8 +2310,26 @@
       <c r="C6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">G6+I6/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C6,E6,J6),0)</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,8 +2342,26 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">G7+I7/2</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C7,E7,J7),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,8 +2374,29 @@
       <c r="C8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">G8+I8/2</f>
+        <v>9.5</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C8,E8,J8),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,8 +2409,26 @@
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">G9+I9/2</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C9,E9,J9),0)</f>
+        <v>4</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,8 +2441,26 @@
       <c r="C10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">G10+I10/2</f>
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,8 +2473,32 @@
       <c r="C11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
+      <c r="E11" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">G11+I11/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,8 +2511,26 @@
       <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">G12+I12/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,11 +2540,38 @@
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
+      <c r="C13" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">G13+I13/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,8 +2584,26 @@
       <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>9</v>
+      <c r="E14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">G14+I14/2</f>
+        <v>14</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
+        <v>11</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,8 +2616,26 @@
       <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">G15+I15/2</f>
+        <v>10</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,8 +2648,26 @@
       <c r="C16" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">G16+I16/2</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,8 +2680,27 @@
       <c r="C17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">MAX(F17,E17)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">G17+I17/2</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
+        <v>3</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,8 +2713,26 @@
       <c r="C18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">G18+I18/2</f>
+        <v>10</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L18" s="0" t="str">
+        <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,8 +2745,26 @@
       <c r="C19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">G19+I19/2</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,8 +2777,29 @@
       <c r="C20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>5</v>
+      <c r="E20" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">G20+I20/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,8 +2812,26 @@
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">G21+I21/2</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,8 +2844,26 @@
       <c r="C22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">G22+I22/2</f>
+        <v>9.5</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="0" t="str">
+        <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,8 +2876,27 @@
       <c r="C23" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">MAX(F24,E24)</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">G23+I23/2</f>
+        <v>13</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
+        <v>11</v>
+      </c>
+      <c r="L23" s="0" t="str">
+        <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,8 +2909,26 @@
       <c r="C24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">G24+I24/2</f>
+        <v>14.5</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
+        <v>11</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <f aca="false">IF(K24&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,8 +2941,26 @@
       <c r="C25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">G25+I25/2</f>
+        <v>24.5</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
+        <v>14</v>
+      </c>
+      <c r="L25" s="0" t="str">
+        <f aca="false">IF(K25&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,8 +2973,26 @@
       <c r="C26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">G26+I26/2</f>
+        <v>20</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
+        <v>13</v>
+      </c>
+      <c r="L26" s="0" t="str">
+        <f aca="false">IF(K26&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,46 +3005,39 @@
       <c r="C27" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">G27+I27/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L27" s="0" t="str">
+        <f aca="false">IF(K27&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="K2:K27">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L27">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1790,11 +3055,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -1806,22 +3071,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,10 +3100,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -1858,10 +3123,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -1881,10 +3146,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -1918,10 +3183,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -1943,10 +3208,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -1963,10 +3228,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -1986,10 +3251,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -2011,10 +3276,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -2025,10 +3290,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -2039,10 +3304,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>3</v>
@@ -2059,10 +3324,10 @@
         <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -2082,10 +3347,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -2105,10 +3370,10 @@
         <v>33</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -2128,10 +3393,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -2153,10 +3418,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -2173,10 +3438,10 @@
         <v>39</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -2196,10 +3461,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -2221,10 +3486,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -2235,10 +3500,10 @@
         <v>42</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -2249,10 +3514,10 @@
         <v>42</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -2269,10 +3534,10 @@
         <v>45</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -2292,10 +3557,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -2315,10 +3580,10 @@
         <v>51</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -2340,10 +3605,10 @@
         <v>51</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -2360,10 +3625,10 @@
         <v>54</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7</v>
@@ -2383,10 +3648,10 @@
         <v>57</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -2408,10 +3673,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -2428,10 +3693,10 @@
         <v>60</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -2451,10 +3716,10 @@
         <v>63</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -2474,10 +3739,10 @@
         <v>66</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -2497,10 +3762,10 @@
         <v>69</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>9</v>
@@ -2520,10 +3785,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -2543,10 +3808,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -2568,10 +3833,10 @@
         <v>75</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>9</v>
@@ -2582,10 +3847,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -2602,10 +3867,10 @@
         <v>78</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>8</v>
@@ -2625,10 +3890,10 @@
         <v>81</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>6</v>
@@ -2657,11 +3922,11 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
@@ -2671,22 +3936,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,10 +3965,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -2737,10 +4002,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -2802,10 +4067,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -2827,10 +4092,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -2841,10 +4106,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -2855,10 +4120,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -2869,10 +4134,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -2903,10 +4168,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -2940,10 +4205,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -2977,10 +4242,10 @@
         <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -3000,10 +4265,10 @@
         <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -3023,10 +4288,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -3046,10 +4311,10 @@
         <v>51</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -3097,10 +4362,10 @@
         <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -3120,10 +4385,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -3143,10 +4408,10 @@
         <v>66</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -3166,10 +4431,10 @@
         <v>69</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -3189,10 +4454,10 @@
         <v>72</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -3212,10 +4477,10 @@
         <v>75</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -3237,10 +4502,10 @@
         <v>75</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -3257,10 +4522,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -3280,10 +4545,10 @@
         <v>81</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>7</v>
@@ -3323,11 +4588,11 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
@@ -3339,22 +4604,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +4633,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -3405,10 +4670,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -3428,10 +4693,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3</v>
@@ -3507,10 +4772,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -3572,10 +4837,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -3595,10 +4860,10 @@
         <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -3632,10 +4897,10 @@
         <v>51</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -3657,10 +4922,10 @@
         <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -3677,10 +4942,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -3700,10 +4965,10 @@
         <v>57</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -3723,10 +4988,10 @@
         <v>60</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -3760,10 +5025,10 @@
         <v>66</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -3783,10 +5048,10 @@
         <v>69</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3808,10 +5073,10 @@
         <v>69</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -3828,10 +5093,10 @@
         <v>72</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -3851,10 +5116,10 @@
         <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -3874,10 +5139,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -3900,7 +5165,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I29,"&gt;0")</f>
+        <v>26</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3917,4 +5190,764 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">ROUND(D2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">ROUND(D3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">ROUND(D4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">ROUND(D5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">ROUND(D6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">ROUND(D7,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">ROUND(D8,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">ROUND(D9,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -964,7 +964,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -974,6 +974,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -994,7 +998,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1007,21 +1011,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1100,7 +1089,7 @@
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -1594,7 +1583,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -2122,10 +2111,10 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
@@ -2199,7 +2188,7 @@
         <f aca="false">ROUND(AVERAGE(C2,E2,J2),0)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="0" t="str">
+      <c r="L2" s="4" t="str">
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2231,7 +2220,7 @@
         <f aca="false">ROUND(AVERAGE(C3,E3,J3),0)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="0" t="str">
+      <c r="L3" s="4" t="str">
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2263,7 +2252,7 @@
         <f aca="false">ROUND(AVERAGE(C4,E4,J4),0)</f>
         <v>9</v>
       </c>
-      <c r="L4" s="0" t="str">
+      <c r="L4" s="4" t="str">
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2295,7 +2284,7 @@
         <f aca="false">ROUND(AVERAGE(C5,E5,J5),0)</f>
         <v>3</v>
       </c>
-      <c r="L5" s="0" t="str">
+      <c r="L5" s="4" t="str">
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2327,7 +2316,7 @@
         <f aca="false">ROUND(AVERAGE(C6,E6,J6),0)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="0" t="str">
+      <c r="L6" s="4" t="str">
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2359,7 +2348,7 @@
         <f aca="false">ROUND(AVERAGE(C7,E7,J7),0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="0" t="str">
+      <c r="L7" s="4" t="str">
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2377,7 +2366,7 @@
       <c r="E8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="H8" s="2" t="n">
@@ -2394,7 +2383,7 @@
         <f aca="false">ROUND(AVERAGE(C8,E8,J8),0)</f>
         <v>8</v>
       </c>
-      <c r="L8" s="0" t="str">
+      <c r="L8" s="4" t="str">
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2426,7 +2415,7 @@
         <f aca="false">ROUND(AVERAGE(C9,E9,J9),0)</f>
         <v>4</v>
       </c>
-      <c r="L9" s="0" t="str">
+      <c r="L9" s="4" t="str">
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2458,7 +2447,7 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>10</v>
       </c>
-      <c r="L10" s="0" t="str">
+      <c r="L10" s="4" t="str">
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2473,13 +2462,13 @@
       <c r="C11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45784</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -2496,7 +2485,7 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>7</v>
       </c>
-      <c r="L11" s="0" t="str">
+      <c r="L11" s="4" t="str">
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2528,7 +2517,7 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="0" t="str">
+      <c r="L12" s="4" t="str">
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2540,19 +2529,19 @@
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="2" t="n">
@@ -2569,7 +2558,7 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>5</v>
       </c>
-      <c r="L13" s="0" t="str">
+      <c r="L13" s="4" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2601,7 +2590,7 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>11</v>
       </c>
-      <c r="L14" s="0" t="str">
+      <c r="L14" s="4" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2633,7 +2622,7 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>10</v>
       </c>
-      <c r="L15" s="0" t="str">
+      <c r="L15" s="4" t="str">
         <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2665,7 +2654,7 @@
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>5</v>
       </c>
-      <c r="L16" s="0" t="str">
+      <c r="L16" s="4" t="str">
         <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2698,7 +2687,7 @@
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>3</v>
       </c>
-      <c r="L17" s="0" t="str">
+      <c r="L17" s="4" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2730,7 +2719,7 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>6</v>
       </c>
-      <c r="L18" s="0" t="str">
+      <c r="L18" s="4" t="str">
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2762,7 +2751,7 @@
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>6</v>
       </c>
-      <c r="L19" s="0" t="str">
+      <c r="L19" s="4" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2777,7 +2766,7 @@
       <c r="C20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>9</v>
       </c>
       <c r="F20" s="2" t="n">
@@ -2797,7 +2786,7 @@
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
         <v>10</v>
       </c>
-      <c r="L20" s="0" t="str">
+      <c r="L20" s="4" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2829,7 +2818,7 @@
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="0" t="str">
+      <c r="L21" s="4" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2861,7 +2850,7 @@
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
         <v>10</v>
       </c>
-      <c r="L22" s="0" t="str">
+      <c r="L22" s="4" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2894,7 +2883,7 @@
         <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
         <v>11</v>
       </c>
-      <c r="L23" s="0" t="str">
+      <c r="L23" s="4" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2915,18 +2904,18 @@
       <c r="G24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>9</v>
+      <c r="I24" s="5" t="n">
+        <v>17</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">G24+I24/2</f>
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="K24" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
-        <v>11</v>
-      </c>
-      <c r="L24" s="0" t="str">
+        <v>13</v>
+      </c>
+      <c r="L24" s="4" t="str">
         <f aca="false">IF(K24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2947,7 +2936,7 @@
       <c r="G25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="5" t="n">
         <v>31</v>
       </c>
       <c r="J25" s="0" t="n">
@@ -2958,7 +2947,7 @@
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>14</v>
       </c>
-      <c r="L25" s="0" t="str">
+      <c r="L25" s="4" t="str">
         <f aca="false">IF(K25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2990,7 +2979,7 @@
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
         <v>13</v>
       </c>
-      <c r="L26" s="0" t="str">
+      <c r="L26" s="4" t="str">
         <f aca="false">IF(K26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3022,7 +3011,7 @@
         <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="0" t="str">
+      <c r="L27" s="4" t="str">
         <f aca="false">IF(K27&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3059,7 +3048,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -3926,7 +3915,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
@@ -4592,7 +4581,7 @@
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
@@ -5203,10 +5192,10 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
   </cols>
   <sheetData>
@@ -5352,10 +5341,10 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
   </cols>
   <sheetData>
@@ -5536,10 +5525,10 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.11"/>
   </cols>
@@ -5724,7 +5713,7 @@
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="293">
+  <si>
+    <t xml:space="preserve">Nro</t>
+  </si>
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -40,6 +43,12 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pbs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -52,6 +61,12 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">heli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thaiel Omar</t>
   </si>
   <si>
@@ -79,9 +94,6 @@
     <t xml:space="preserve">48702442@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rodrigo Jesus</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t xml:space="preserve">yoecaballero@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Recursante</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hector Hernan</t>
   </si>
   <si>
@@ -181,6 +196,9 @@
     <t xml:space="preserve">48847759@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALENTIN</t>
   </si>
   <si>
@@ -226,6 +244,9 @@
     <t xml:space="preserve">carlomontes06@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ignacio</t>
   </si>
   <si>
@@ -280,9 +301,6 @@
     <t xml:space="preserve">lucianovel31@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Nro</t>
-  </si>
-  <si>
     <t xml:space="preserve">1-volt y amp</t>
   </si>
   <si>
@@ -305,6 +323,15 @@
   </si>
   <si>
     <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-man ATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animacion</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -887,10 +914,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -981,7 +1009,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1083,21 +1111,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="5" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="8.65"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1106,459 +1138,1186 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>45792</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="K9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E27,"p")</f>
+        <v>19</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G27,"p")</f>
+        <v>21</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I27,"p")</f>
+        <v>20</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">COUNTIF(K2:K27,"p")</f>
+        <v>19</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L27,"p")</f>
+        <v>20</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="false">COUNTIF(M2:M27,"p")</f>
+        <v>13</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">COUNTIF(O2:O27,"p")</f>
+        <v>19</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">COUNTIF(P2:P27,"p")</f>
         <v>16</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
-        <f aca="false">COUNTIF(D2:D27,"p")</f>
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1579,11 +2338,11 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -1591,10 +2350,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="n">
         <v>45736</v>
@@ -1609,10 +2368,10 @@
         <v>45757</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -1635,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">SUM(C3:G3)</f>
@@ -1647,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -1665,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3</v>
@@ -1683,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -1698,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">SUM(C7:G7)</f>
@@ -1710,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -1731,7 +2490,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">SUM(C9:G9)</f>
@@ -1743,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -1767,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -1782,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -1797,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
@@ -1815,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -1839,7 +2598,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -1860,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">SUM(C16:G16)</f>
@@ -1872,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">SUM(C17:G17)</f>
@@ -1884,7 +2643,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -1902,7 +2661,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -1923,7 +2682,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -1938,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -1953,7 +2712,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -1968,7 +2727,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -1986,7 +2745,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -2007,7 +2766,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -2034,7 +2793,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -2061,7 +2820,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3</v>
@@ -2073,7 +2832,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">COUNTIF(C2:C27,"&gt;0")</f>
@@ -2108,65 +2867,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>8</v>
@@ -2184,7 +2954,7 @@
         <f aca="false">G2+I2/2</f>
         <v>6.5</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,J2),0)</f>
         <v>8</v>
       </c>
@@ -2192,13 +2962,15 @@
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -2216,7 +2988,7 @@
         <f aca="false">G3+I3/2</f>
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,J3),0)</f>
         <v>1</v>
       </c>
@@ -2224,13 +2996,18 @@
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -2248,7 +3025,7 @@
         <f aca="false">G4+I4/2</f>
         <v>8</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,J4),0)</f>
         <v>9</v>
       </c>
@@ -2256,13 +3033,15 @@
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -2280,7 +3059,7 @@
         <f aca="false">G5+I5/2</f>
         <v>6</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,J5),0)</f>
         <v>3</v>
       </c>
@@ -2288,13 +3067,18 @@
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -2312,7 +3096,7 @@
         <f aca="false">G6+I6/2</f>
         <v>2.5</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,J6),0)</f>
         <v>2</v>
       </c>
@@ -2320,13 +3104,15 @@
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2344,7 +3130,7 @@
         <f aca="false">G7+I7/2</f>
         <v>1</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,J7),0)</f>
         <v>1</v>
       </c>
@@ -2352,13 +3138,15 @@
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>8</v>
@@ -2379,7 +3167,7 @@
         <f aca="false">G8+I8/2</f>
         <v>9.5</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,J8),0)</f>
         <v>8</v>
       </c>
@@ -2387,13 +3175,15 @@
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
@@ -2411,7 +3201,7 @@
         <f aca="false">G9+I9/2</f>
         <v>1</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,J9),0)</f>
         <v>4</v>
       </c>
@@ -2419,13 +3209,18 @@
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>7</v>
@@ -2443,7 +3238,7 @@
         <f aca="false">G10+I10/2</f>
         <v>15</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>10</v>
       </c>
@@ -2451,13 +3246,18 @@
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -2481,7 +3281,7 @@
         <f aca="false">G11+I11/2</f>
         <v>6.5</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>7</v>
       </c>
@@ -2489,31 +3289,42 @@
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
+      <c r="D12" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">G12+I12/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>5</v>
       </c>
@@ -2521,126 +3332,129 @@
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>45782</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">G13+I13/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="K13" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L13" s="4" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEA</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">G14+I14/2</f>
-        <v>14</v>
-      </c>
-      <c r="K14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" s="4" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">G15+I15/2</f>
-        <v>10</v>
-      </c>
-      <c r="K15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L15" s="4" t="str">
         <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEP</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
+        <f aca="false">MAX(F16,E16)</f>
         <v>1</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -2650,21 +3464,23 @@
         <f aca="false">G16+I16/2</f>
         <v>1</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" s="4" t="str">
         <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>7</v>
@@ -2673,31 +3489,32 @@
         <v>1</v>
       </c>
       <c r="G17" s="0" t="n">
-        <f aca="false">MAX(F17,E17)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">G17+I17/2</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L17" s="4" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>7</v>
@@ -2706,16 +3523,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">G18+I18/2</f>
         <v>10</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>6</v>
       </c>
@@ -2723,112 +3540,123 @@
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45751</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">G19+I19/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>10</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
-        <v>6</v>
       </c>
       <c r="L19" s="4" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEA</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>45751</v>
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">G20+I20/2</f>
-        <v>11.5</v>
-      </c>
-      <c r="K20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEP</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">G21+I21/2</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K21" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L21" s="4" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEA</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -2837,30 +3665,33 @@
         <v>10</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>8</v>
+        <f aca="false">MAX(F23,E23)</f>
+        <v>10</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">G22+I22/2</f>
-        <v>9.5</v>
-      </c>
-      <c r="K22" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K22" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="4" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
@@ -2869,127 +3700,137 @@
         <v>10</v>
       </c>
       <c r="G23" s="0" t="n">
-        <f aca="false">MAX(F24,E24)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>6</v>
+      <c r="I23" s="5" t="n">
+        <v>17</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">G23+I23/2</f>
+        <v>18.5</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
         <v>13</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
-        <v>11</v>
       </c>
       <c r="L23" s="4" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">G24+I24/2</f>
-        <v>18.5</v>
-      </c>
-      <c r="K24" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L24" s="4" t="str">
         <f aca="false">IF(K24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">G25+I25/2</f>
-        <v>24.5</v>
-      </c>
-      <c r="K25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L25" s="4" t="str">
         <f aca="false">IF(K25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">G26+I26/2</f>
-        <v>20</v>
-      </c>
-      <c r="K26" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L26" s="4" t="str">
         <f aca="false">IF(K26&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEP</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>6</v>
@@ -3007,7 +3848,7 @@
         <f aca="false">G27+I27/2</f>
         <v>2.5</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K27" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
         <v>5</v>
       </c>
@@ -3015,6 +3856,8 @@
         <f aca="false">IF(K27&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K27">
@@ -3022,7 +3865,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L27">
+  <conditionalFormatting sqref="L2:N27">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
     </cfRule>
@@ -3044,11 +3887,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -3057,25 +3900,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -3106,16 +3949,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3129,16 +3972,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3152,7 +3995,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -3166,16 +4009,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -3194,13 +4037,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3211,16 +4054,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3234,16 +4077,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -3262,13 +4105,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3276,13 +4119,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -3290,13 +4133,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>3</v>
@@ -3307,16 +4150,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3330,16 +4173,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -3353,16 +4196,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -3376,16 +4219,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -3404,13 +4247,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -3421,16 +4264,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -3444,16 +4287,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -3472,13 +4315,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -3486,13 +4329,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -3500,13 +4343,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -3517,16 +4360,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -3540,16 +4383,16 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -3563,16 +4406,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -3591,13 +4434,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -3608,16 +4451,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7</v>
@@ -3631,16 +4474,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -3659,13 +4502,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -3676,16 +4519,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -3699,16 +4542,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -3722,16 +4565,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -3745,16 +4588,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>9</v>
@@ -3768,16 +4611,16 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -3791,16 +4634,16 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -3819,13 +4662,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>9</v>
@@ -3833,13 +4676,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -3850,16 +4693,16 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>8</v>
@@ -3873,16 +4716,16 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>6</v>
@@ -3911,36 +4754,36 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,16 +4791,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -3971,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3985,16 +4828,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -4008,7 +4851,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -4022,7 +4865,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4036,7 +4879,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4050,16 +4893,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -4078,13 +4921,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -4092,13 +4935,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -4106,13 +4949,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -4120,13 +4963,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -4137,7 +4980,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -4151,16 +4994,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -4174,7 +5017,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4188,16 +5031,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -4211,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -4225,16 +5068,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -4248,16 +5091,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -4271,16 +5114,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -4294,16 +5137,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4317,7 +5160,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -4331,7 +5174,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -4345,16 +5188,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -4368,16 +5211,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -4391,16 +5234,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -4414,16 +5257,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -4437,16 +5280,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -4460,16 +5303,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -4488,13 +5331,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -4505,16 +5348,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -4528,16 +5371,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>7</v>
@@ -4577,11 +5420,11 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
@@ -4590,25 +5433,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,16 +5459,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -4639,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4653,16 +5496,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -4676,16 +5519,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3</v>
@@ -4699,7 +5542,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4713,7 +5556,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4727,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -4741,7 +5584,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4755,16 +5598,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -4778,7 +5621,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4792,7 +5635,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -4806,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -4820,16 +5663,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -4843,16 +5686,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -4866,7 +5709,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4880,16 +5723,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -4908,13 +5751,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -4925,16 +5768,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4948,16 +5791,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -4971,16 +5814,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -4994,7 +5837,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -5008,16 +5851,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -5031,16 +5874,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -5059,13 +5902,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -5076,16 +5919,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5099,16 +5942,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -5122,16 +5965,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -5145,7 +5988,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -5156,7 +5999,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">COUNTIF(I2:I29,"&gt;0")</f>
@@ -5188,11 +6031,11 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5201,54 +6044,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
@@ -5283,13 +6126,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -5337,11 +6180,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5350,54 +6193,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -5426,13 +6269,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4</v>
@@ -5464,13 +6307,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -5521,11 +6364,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5535,54 +6378,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>6</v>
@@ -5614,13 +6457,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -5652,13 +6495,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -5709,44 +6552,44 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -5764,13 +6607,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -5788,13 +6631,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -5812,13 +6655,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -5836,13 +6679,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -5860,13 +6703,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -5884,13 +6727,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>10</v>
@@ -5908,13 +6751,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1.67</v>
@@ -5923,7 +6766,7 @@
         <v>1.67</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">ROUND(D9,0)</f>

--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -16,8 +16,9 @@
     <sheet name="1-Recup" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="2-recup" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="3-recup" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="4-Thevenin- positivos" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Thevenin- positivos" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="positivos" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="4-ata" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="327">
   <si>
     <t xml:space="preserve">Nro</t>
   </si>
@@ -49,6 +50,27 @@
     <t xml:space="preserve">pbs</t>
   </si>
   <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total prese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notas pretente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -319,13 +341,28 @@
     <t xml:space="preserve">3+positivos</t>
   </si>
   <si>
+    <t xml:space="preserve">medio term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-man ATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">promedio</t>
   </si>
   <si>
-    <t xml:space="preserve">valoracion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-man ATA</t>
+    <t xml:space="preserve">chorioco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barraza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prom Gral</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo</t>
@@ -907,7 +944,73 @@
     <t xml:space="preserve">Thevenin</t>
   </si>
   <si>
+    <t xml:space="preserve">totales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arinc 429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foto </t>
+  </si>
+  <si>
     <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 12 segundos</t>
   </si>
 </sst>
 </file>
@@ -917,8 +1020,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -944,7 +1047,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,13 +1060,32 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BC34A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -992,7 +1114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1005,7 +1127,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1013,7 +1159,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1026,7 +1204,112 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC107"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1054,7 +1337,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1087,8 +1370,8 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FF8BC34A"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1111,1213 +1394,1858 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="5" style="0" width="8.65"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="W1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>45820</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>45827</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>45834</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="O2" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="P2" s="2" t="n">
         <v>45848</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="Q2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="R2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="S2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>9</v>
+      <c r="X2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:P3,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:P3,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:P3,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <f aca="false">ROUND(Q3+R3/3+S3/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <f aca="false">ROUND(T3*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:P4,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:P4,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:P4,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <f aca="false">ROUND(Q4+R4/3+S4/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <f aca="false">ROUND(T4*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:P5,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:P5,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:P5,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <f aca="false">ROUND(Q5+R5/3+S5/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <f aca="false">ROUND(T5*10/$W$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:P6,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:P6,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:P6,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <f aca="false">ROUND(Q6+R6/3+S6/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <f aca="false">ROUND(T6*10/$W$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:P7,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:P7,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:P7,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <f aca="false">ROUND(Q7+R7/3+S7/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <f aca="false">ROUND(T7*10/$W$1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>9</v>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <f aca="false">COUNTIF(E8:P8,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <f aca="false">COUNTIF(E8:P8,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <f aca="false">COUNTIF(E8:P8,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="7" t="n">
+        <f aca="false">ROUND(Q8+R8/3+S8/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="8" t="n">
+        <f aca="false">ROUND(T8*10/$W$1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:P9,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:P9,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:P9,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <f aca="false">ROUND(Q9+R9/3+S9/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <f aca="false">ROUND(T9*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:P10,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:P10,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:P10,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <f aca="false">ROUND(Q10+R10/3+S10/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <f aca="false">ROUND(T10*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:P11,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:P11,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:P11,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <f aca="false">ROUND(Q11+R11/3+S11/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <f aca="false">ROUND(T11*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:P12,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:P12,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:P12,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <f aca="false">ROUND(Q12+R12/3+S12/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <f aca="false">ROUND(T12*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:P13,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:P13,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:P13,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <f aca="false">ROUND(Q13+R13/3+S13/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <f aca="false">ROUND(T13*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:P14,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:P14,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:P14,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <f aca="false">ROUND(Q14+R14/3+S14/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <f aca="false">ROUND(T14*10/$W$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:P15,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:P15,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:P15,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <f aca="false">ROUND(Q15+R15/3+S15/4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <f aca="false">ROUND(T15*10/$W$1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:P16,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:P16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:P16,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <f aca="false">ROUND(Q16+R16/3+S16/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <f aca="false">ROUND(T16*10/$W$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="3" t="n">
+      <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="9" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="O16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17" s="3" t="n">
+      <c r="O17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <f aca="false">COUNTIF(E17:P17,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <f aca="false">COUNTIF(E17:P17,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <f aca="false">COUNTIF(E17:P17,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="7" t="n">
+        <f aca="false">ROUND(Q17+R17/3+S17/4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="U17" s="8" t="n">
+        <f aca="false">ROUND(T17*10/$W$1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="9" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="O17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>9</v>
+      <c r="O18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <f aca="false">COUNTIF(E18:P18,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <f aca="false">COUNTIF(E18:P18,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <f aca="false">COUNTIF(E18:P18,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7" t="n">
+        <f aca="false">ROUND(Q18+R18/3+S18/4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="U18" s="8" t="n">
+        <f aca="false">ROUND(T18*10/$W$1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>0.548611111111111</v>
+        <v>16</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:P19,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:P19,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:P19,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <f aca="false">ROUND(Q19+R19/3+S19/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <f aca="false">ROUND(T19*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="N20" s="10" t="n">
+        <v>0.548611111111111</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:P20,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:P20,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:P20,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <f aca="false">ROUND(Q20+R20/3+S20/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <f aca="false">ROUND(T20*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>0.576388888888889</v>
+        <v>16</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:P21,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:P21,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:P21,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <f aca="false">ROUND(Q21+R21/3+S21/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <f aca="false">ROUND(T21*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>9</v>
+        <v>78</v>
+      </c>
+      <c r="N22" s="10" t="n">
+        <v>0.576388888888889</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:P22,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:P22,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:P22,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="3" t="n">
+        <f aca="false">ROUND(Q22+R22/3+S22/4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="4" t="n">
+        <f aca="false">ROUND(T22*10/$W$1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:P23,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:P23,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:P23,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <f aca="false">ROUND(Q23+R23/3+S23/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <f aca="false">ROUND(T23*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:P24,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:P24,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:P24,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <f aca="false">ROUND(Q24+R24/3+S24/4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="U24" s="4" t="n">
+        <f aca="false">ROUND(T24*10/$W$1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">COUNTIF(E25:P25,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">COUNTIF(E25:P25,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">COUNTIF(E25:P25,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <f aca="false">ROUND(Q25+R25/3+S25/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U25" s="4" t="n">
+        <f aca="false">ROUND(T25*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">COUNTIF(E26:P26,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">COUNTIF(E26:P26,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">COUNTIF(E26:P26,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="n">
+        <f aca="false">ROUND(Q26+R26/3+S26/4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="U26" s="4" t="n">
+        <f aca="false">ROUND(T26*10/$W$1,0)</f>
+        <v>9</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">COUNTIF(E27:P27,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">COUNTIF(E27:P27,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <f aca="false">COUNTIF(E27:P27,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="n">
+        <f aca="false">ROUND(Q27+R27/3+S27/4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="U27" s="4" t="n">
+        <f aca="false">ROUND(T27*10/$W$1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="3" t="n">
+      <c r="B28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="9" t="n">
         <v>0.548611111111111</v>
       </c>
-      <c r="O27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E27,"p")</f>
+      <c r="O28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <f aca="false">COUNTIF(E28:P28,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <f aca="false">COUNTIF(E28:P28,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="5" t="n">
+        <f aca="false">COUNTIF(E28:P28,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="7" t="n">
+        <f aca="false">ROUND(Q28+R28/3+S28/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="8" t="n">
+        <f aca="false">ROUND(T28*10/$W$1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0" t="n">
+        <f aca="false">COUNTIF(E3:E28,"p")</f>
         <v>19</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">COUNTIF(G2:G27,"p")</f>
+      <c r="G29" s="0" t="n">
+        <f aca="false">COUNTIF(G3:G28,"p")</f>
         <v>21</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">COUNTIF(I2:I27,"p")</f>
+      <c r="I29" s="0" t="n">
+        <f aca="false">COUNTIF(I3:I28,"p")</f>
         <v>20</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">COUNTIF(K2:K27,"p")</f>
+      <c r="K29" s="0" t="n">
+        <f aca="false">COUNTIF(K3:K28,"p")</f>
         <v>19</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <f aca="false">COUNTIF(L2:L27,"p")</f>
+      <c r="L29" s="0" t="n">
+        <f aca="false">COUNTIF(L3:L28,"p")</f>
         <v>20</v>
       </c>
-      <c r="M28" s="0" t="n">
-        <f aca="false">COUNTIF(M2:M27,"p")</f>
+      <c r="M29" s="0" t="n">
+        <f aca="false">COUNTIF(M3:M28,"p")</f>
         <v>13</v>
       </c>
-      <c r="O28" s="0" t="n">
-        <f aca="false">COUNTIF(O2:O27,"p")</f>
+      <c r="O29" s="0" t="n">
+        <f aca="false">COUNTIF(O3:O28,"p")</f>
         <v>19</v>
       </c>
-      <c r="P28" s="0" t="n">
-        <f aca="false">COUNTIF(P2:P27,"p")</f>
-        <v>16</v>
+      <c r="P29" s="0" t="n">
+        <f aca="false">COUNTIF(P3:P28,"p")</f>
+        <v>16</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V28,"p")</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2336,16 +3264,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="3" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,10 +3298,28 @@
         <v>45757</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -2388,17 +3336,39 @@
         <f aca="false">SUM(C2:G2)</f>
         <v>3</v>
       </c>
+      <c r="M2" s="19" t="n">
+        <f aca="false">SUM(K2,I2,H2)</f>
+        <v>3</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">M2-H2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">SUM(C3:G3)</f>
         <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" s="19" t="n">
+        <f aca="false">SUM(K3,I3,H3)</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">M3-H3</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -2418,13 +3388,27 @@
         <f aca="false">SUM(C4:G4)</f>
         <v>4</v>
       </c>
+      <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="19" t="n">
+        <f aca="false">SUM(K4,I4,H4)</f>
+        <v>9</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">M4-H4</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3</v>
@@ -2436,13 +3420,27 @@
         <f aca="false">SUM(C5:G5)</f>
         <v>6</v>
       </c>
+      <c r="I5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="M5" s="19" t="n">
+        <f aca="false">SUM(K5,I5,H5)</f>
+        <v>11</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">M5-H5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -2451,16 +3449,32 @@
         <f aca="false">SUM(C6:G6)</f>
         <v>3</v>
       </c>
+      <c r="M6" s="19" t="n">
+        <f aca="false">SUM(K6,I6,H6)</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">M6-H6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">SUM(C7:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="19" t="n">
+        <f aca="false">SUM(K7,I7,H7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">M7-H7</f>
         <v>0</v>
       </c>
     </row>
@@ -2469,7 +3483,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -2484,25 +3498,53 @@
         <f aca="false">SUM(C8:G8)</f>
         <v>7</v>
       </c>
+      <c r="M8" s="19" t="n">
+        <f aca="false">SUM(K8,I8,H8)</f>
+        <v>7</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">M8-H8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">SUM(C9:G9)</f>
         <v>0</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M9" s="19" t="n">
+        <f aca="false">SUM(K9,I9,H9)</f>
+        <v>6</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">M9-H9</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -2520,13 +3562,33 @@
         <f aca="false">SUM(C10:G10)</f>
         <v>12</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" s="19" t="n">
+        <f aca="false">SUM(K10,I10,H10)</f>
+        <v>18</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">M10-H10</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -2534,6 +3596,14 @@
       <c r="H11" s="0" t="n">
         <f aca="false">SUM(C11:G11)</f>
         <v>1</v>
+      </c>
+      <c r="M11" s="19" t="n">
+        <f aca="false">SUM(K11,I11,H11)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">M11-H11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,7 +3611,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -2550,13 +3620,27 @@
         <f aca="false">SUM(C12:G12)</f>
         <v>3</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M12" s="19" t="n">
+        <f aca="false">SUM(K12,I12,H12)</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">M12-H12</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
@@ -2568,13 +3652,27 @@
         <f aca="false">SUM(C13:G13)</f>
         <v>5</v>
       </c>
+      <c r="I13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="M13" s="19" t="n">
+        <f aca="false">SUM(K13,I13,H13)</f>
+        <v>10</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">M13-H13</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -2591,6 +3689,20 @@
       <c r="H14" s="0" t="n">
         <f aca="false">SUM(C14:G14)</f>
         <v>10</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M14" s="19" t="n">
+        <f aca="false">SUM(K14,I14,H14)</f>
+        <v>11</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">M14-H14</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,7 +3710,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -2612,6 +3724,20 @@
       <c r="H15" s="0" t="n">
         <f aca="false">SUM(C15:G15)</f>
         <v>8</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="M15" s="19" t="n">
+        <f aca="false">SUM(K15,I15,H15)</f>
+        <v>13</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">M15-H15</f>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,22 +3745,38 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">SUM(C16:G16)</f>
         <v>0</v>
       </c>
+      <c r="M16" s="19" t="n">
+        <f aca="false">SUM(K16,I16,H16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">M16-H16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">SUM(C17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="n">
+        <f aca="false">SUM(K17,I17,H17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">M17-H17</f>
         <v>0</v>
       </c>
     </row>
@@ -2643,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -2655,13 +3797,21 @@
         <f aca="false">SUM(C18:G18)</f>
         <v>6</v>
       </c>
+      <c r="M18" s="19" t="n">
+        <f aca="false">SUM(K18,I18,H18)</f>
+        <v>6</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">M18-H18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -2675,6 +3825,26 @@
       <c r="H19" s="0" t="n">
         <f aca="false">SUM(C19:G19)</f>
         <v>8</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M19" s="19" t="n">
+        <f aca="false">SUM(K19,I19,H19)</f>
+        <v>14</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">M19-H19</f>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,7 +3852,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -2691,13 +3861,21 @@
         <f aca="false">SUM(C20:G20)</f>
         <v>3</v>
       </c>
+      <c r="M20" s="19" t="n">
+        <f aca="false">SUM(K20,I20,H20)</f>
+        <v>3</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">M20-H20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -2706,13 +3884,21 @@
         <f aca="false">SUM(C21:G21)</f>
         <v>2</v>
       </c>
+      <c r="M21" s="19" t="n">
+        <f aca="false">SUM(K21,I21,H21)</f>
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">M21-H21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -2721,13 +3907,21 @@
         <f aca="false">SUM(C22:G22)</f>
         <v>3</v>
       </c>
+      <c r="M22" s="19" t="n">
+        <f aca="false">SUM(K22,I22,H22)</f>
+        <v>3</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">M22-H22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -2739,13 +3933,33 @@
         <f aca="false">SUM(C23:G23)</f>
         <v>6</v>
       </c>
+      <c r="I23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M23" s="19" t="n">
+        <f aca="false">SUM(K23,I23,H23)</f>
+        <v>12</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">M23-H23</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -2759,6 +3973,26 @@
       <c r="H24" s="0" t="n">
         <f aca="false">SUM(C24:G24)</f>
         <v>9</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M24" s="19" t="n">
+        <f aca="false">SUM(K24,I24,H24)</f>
+        <v>15</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">M24-H24</f>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +4000,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -2787,13 +4021,33 @@
         <f aca="false">SUM(C25:G25)</f>
         <v>31</v>
       </c>
+      <c r="I25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M25" s="19" t="n">
+        <f aca="false">SUM(K25,I25,H25)</f>
+        <v>37</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">M25-H25</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -2814,13 +4068,33 @@
         <f aca="false">SUM(C26:G26)</f>
         <v>20</v>
       </c>
+      <c r="I26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="M26" s="19" t="n">
+        <f aca="false">SUM(K26,I26,H26)</f>
+        <v>26</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">M26-H26</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3</v>
@@ -2829,10 +4103,14 @@
         <f aca="false">SUM(C27:G27)</f>
         <v>3</v>
       </c>
+      <c r="M27" s="19" t="n">
+        <f aca="false">SUM(K27,I27,H27)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">COUNTIF(C2:C27,"&gt;0")</f>
@@ -2851,6 +4129,601 @@
         <v>7</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I27,"&gt;0")</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2867,13 +4740,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
@@ -2882,6 +4755,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="9.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,43 +4766,61 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="O1" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>8</v>
@@ -2954,51 +4846,98 @@
         <f aca="false">G2+I2/2</f>
         <v>6.5</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,J2),0)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="str">
+      <c r="L2" s="12" t="str">
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O2,M2,K2),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P2:R2),0)</f>
+        <v>8</v>
+      </c>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>45851</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>45851</v>
+      </c>
+      <c r="G3" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="n">
+        <v>45849</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <v>5</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">G3+I3/2</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K3" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,J3),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="str">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="str">
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="0" t="n">
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O3,M3,K3),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P3:R3),0)</f>
+        <v>7</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3007,7 +4946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -3018,58 +4957,108 @@
       <c r="G4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>4</v>
+      <c r="I4" s="14" t="n">
+        <v>9</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">G4+I4/2</f>
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K4" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,J4),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L4" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="L4" s="12" t="str">
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="M4" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" s="15" t="n">
+        <v>45849</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O4,M4,K4),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P4:R4),0)</f>
+        <v>8</v>
+      </c>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="n">
         <v>6</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>45851</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>45851</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>45849</v>
+      </c>
+      <c r="I5" s="14" t="n">
+        <v>11</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">G5+I5/2</f>
-        <v>6</v>
-      </c>
-      <c r="K5" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K5" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,J5),0)</f>
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="L5" s="12" t="str">
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="0" t="n">
+        <v>TEA</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O5,M5,K5),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P5:R5),0)</f>
+        <v>8</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3078,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -3096,57 +5085,99 @@
         <f aca="false">G6+I6/2</f>
         <v>2.5</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,J6),0)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="L6" s="12" t="str">
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O6,M6,K6),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P6:R6),0)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <f aca="false">G7+I7/2</f>
         <v>1</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,J7),0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="17" t="str">
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="M7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="n">
+        <f aca="false">ROUND(AVERAGE(O7,M7,K7),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P7:R7),0)</f>
+        <v>6</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>8</v>
@@ -3167,51 +5198,93 @@
         <f aca="false">G8+I8/2</f>
         <v>9.5</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,J8),0)</f>
         <v>8</v>
       </c>
-      <c r="L8" s="4" t="str">
+      <c r="L8" s="12" t="str">
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O8,M8,K8),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P8:R8),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
+      <c r="E9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>45851</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>45849</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>6</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">G9+I9/2</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,J9),0)</f>
-        <v>4</v>
-      </c>
-      <c r="L9" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="L9" s="12" t="str">
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="0" t="n">
+        <v>TEA</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O9,M9,K9),0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S9" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P9:R9),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U9" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3220,7 +5293,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>7</v>
@@ -3231,24 +5304,42 @@
       <c r="G10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>12</v>
+      <c r="I10" s="14" t="n">
+        <v>18</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">G10+I10/2</f>
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="K10" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L10" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="L10" s="12" t="str">
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="0" t="n">
+      <c r="M10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O10,M10,K10),0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P10:R10),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3257,7 +5348,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -3281,382 +5372,591 @@
         <f aca="false">G11+I11/2</f>
         <v>6.5</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>7</v>
       </c>
-      <c r="L11" s="4" t="str">
+      <c r="L11" s="12" t="str">
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O11,M11,K11),0)</f>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P11:R11),0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="n">
         <v>4</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45782</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">G12+I12/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="K12" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="4" t="str">
+      <c r="L12" s="12" t="str">
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="0" t="n">
-        <v>7</v>
+      <c r="M12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O12,M12,K12),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P12:R12),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I13" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>45851</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>45849</v>
+      </c>
+      <c r="I13" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">G13+I13/2</f>
-        <v>14</v>
-      </c>
-      <c r="K13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
-        <v>11</v>
-      </c>
-      <c r="L13" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="L13" s="12" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O13,M13,K13),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P13:R13),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I14" s="14" t="n">
+        <v>11</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">G14+I14/2</f>
-        <v>10</v>
-      </c>
-      <c r="K14" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K14" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L14" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="L14" s="12" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="M14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O14,M14,K14),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S14" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P14:R14),0)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K15" s="11" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
+        <v>15</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O15,M15,K15),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P15:R15),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">G15+I15/2</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="n">
-        <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
+      <c r="G16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">G16+I16/2</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="16" t="n">
+        <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>5</v>
       </c>
-      <c r="L15" s="4" t="str">
-        <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">MAX(F16,E16)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">G16+I16/2</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
-        <v>3</v>
-      </c>
-      <c r="L16" s="4" t="str">
+      <c r="L16" s="17" t="str">
         <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="M16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="18" t="n">
+        <f aca="false">ROUND(AVERAGE(O16,M16,K16),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S16" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P16:R16),0)</f>
+        <v>6</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="0" t="n">
+      <c r="E17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <f aca="false">MAX(F17,E17)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <f aca="false">G17+I17/2</f>
-        <v>10</v>
-      </c>
-      <c r="K17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L17" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="L17" s="17" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="M17" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="18" t="n">
+        <f aca="false">ROUND(AVERAGE(O17,M17,K17),0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
+      <c r="E18" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>45851</v>
       </c>
       <c r="G18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">G18+I18/2</f>
         <v>10</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L18" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="L18" s="12" t="str">
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="0" t="n">
-        <v>7</v>
+        <v>TEA</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P18" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O18,M18,K18),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S18" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P18:R18),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>45751</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="I19" s="14" t="n">
+        <v>14</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">G19+I19/2</f>
-        <v>11.5</v>
-      </c>
-      <c r="K19" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="K19" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L19" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="L19" s="12" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="M19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P19" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O19,M19,K19),0)</f>
+        <v>8</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S19" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P19:R19),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45751</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">G20+I20/2</f>
-        <v>2</v>
-      </c>
-      <c r="K20" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K20" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="L20" s="12" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+        <v>TEA</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O20,M20,K20),0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S20" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P20:R20),0)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">G21+I21/2</f>
-        <v>9.5</v>
-      </c>
-      <c r="K21" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
-        <v>10</v>
-      </c>
-      <c r="L21" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+        <v>TEP</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O21,M21,K21),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P21:R21),0)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -3665,33 +5965,50 @@
         <v>10</v>
       </c>
       <c r="G22" s="0" t="n">
-        <f aca="false">MAX(F23,E23)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">G22+I22/2</f>
-        <v>13</v>
-      </c>
-      <c r="K22" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K22" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
-        <v>11</v>
-      </c>
-      <c r="L22" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="L22" s="12" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="M22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O22,M22,K22),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S22" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P22:R22),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
@@ -3700,174 +6017,287 @@
         <v>10</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>17</v>
+        <f aca="false">MAX(F24,E24)</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="14" t="n">
+        <v>12</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">G23+I23/2</f>
-        <v>18.5</v>
-      </c>
-      <c r="K23" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K23" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
-        <v>13</v>
-      </c>
-      <c r="L23" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="L23" s="12" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="0" t="n">
-        <v>10</v>
+      <c r="M23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O23,M23,K23),0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S23" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P23:R23),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>15</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">G24+I24/2</f>
-        <v>24.5</v>
-      </c>
-      <c r="K24" s="4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K24" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
-        <v>14</v>
-      </c>
-      <c r="L24" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="L24" s="12" t="str">
         <f aca="false">IF(K24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="M24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P24" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O24,M24,K24),0)</f>
+        <v>10</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S24" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P24:R24),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>37</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">G25+I25/2</f>
-        <v>20</v>
-      </c>
-      <c r="K25" s="4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K25" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
-        <v>13</v>
-      </c>
-      <c r="L25" s="4" t="str">
+        <v>15</v>
+      </c>
+      <c r="L25" s="12" t="str">
         <f aca="false">IF(K25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="M25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P25" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O25,M25,K25),0)</f>
+        <v>11</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S25" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P25:R25),0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>26</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">G26+I26/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="K26" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K26" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
-        <v>5</v>
-      </c>
-      <c r="L26" s="4" t="str">
+        <v>14</v>
+      </c>
+      <c r="L26" s="12" t="str">
         <f aca="false">IF(K26&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="0" t="n">
+        <v>TEA</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(O26,M26,K26),0)</f>
+        <v>11</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S26" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P26:R26),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="0" t="n">
+      <c r="G27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="5" t="n">
         <f aca="false">G27+I27/2</f>
         <v>2.5</v>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="4" t="str">
+      <c r="L27" s="17" t="str">
         <f aca="false">IF(K27&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="M27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="18" t="n">
+        <f aca="false">ROUND(AVERAGE(O27,M27,K27),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S27" s="13" t="n">
+        <f aca="false">ROUND(AVERAGE(P27:R27),0)</f>
+        <v>6</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K27">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="L2:L27 T2:T6">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L27">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L28">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S27">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>4</formula>
       <formula>7</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:N27">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"TEP"</formula>
+    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3887,11 +6317,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -3903,22 +6333,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,16 +6356,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -3949,16 +6379,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3972,16 +6402,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3995,7 +6425,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -4009,16 +6439,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -4037,13 +6467,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4054,16 +6484,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -4077,16 +6507,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -4105,13 +6535,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4119,13 +6549,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -4133,13 +6563,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>3</v>
@@ -4150,16 +6580,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -4173,16 +6603,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -4196,16 +6626,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -4219,16 +6649,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -4247,13 +6677,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -4264,16 +6694,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -4287,16 +6717,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -4315,13 +6745,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -4329,13 +6759,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -4343,13 +6773,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -4360,16 +6790,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -4383,16 +6813,16 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -4406,16 +6836,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -4434,13 +6864,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -4451,16 +6881,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7</v>
@@ -4474,16 +6904,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -4502,13 +6932,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -4519,16 +6949,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -4542,16 +6972,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -4565,16 +6995,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -4588,16 +7018,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>9</v>
@@ -4611,16 +7041,16 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -4634,16 +7064,16 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -4662,13 +7092,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>9</v>
@@ -4676,13 +7106,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -4693,16 +7123,16 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>8</v>
@@ -4716,16 +7146,16 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>6</v>
@@ -4754,11 +7184,11 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
@@ -4768,22 +7198,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,16 +7221,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -4814,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4828,16 +7258,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -4851,7 +7281,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -4865,7 +7295,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4879,7 +7309,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4893,16 +7323,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -4921,13 +7351,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -4935,13 +7365,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -4949,13 +7379,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -4963,13 +7393,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -4980,7 +7410,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -4994,16 +7424,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -5017,7 +7447,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -5031,16 +7461,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -5054,7 +7484,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -5068,16 +7498,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -5091,16 +7521,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -5114,16 +7544,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -5137,16 +7567,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -5160,7 +7590,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -5174,7 +7604,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -5188,16 +7618,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -5211,16 +7641,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -5234,16 +7664,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5257,16 +7687,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -5280,16 +7710,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -5303,16 +7733,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -5331,13 +7761,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -5348,16 +7778,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -5371,16 +7801,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>7</v>
@@ -5420,11 +7850,11 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
@@ -5436,22 +7866,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,16 +7889,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -5482,7 +7912,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -5496,16 +7926,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -5519,16 +7949,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3</v>
@@ -5542,7 +7972,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -5556,7 +7986,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -5570,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -5584,7 +8014,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -5598,16 +8028,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -5621,7 +8051,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -5635,7 +8065,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -5649,7 +8079,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -5663,16 +8093,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -5686,16 +8116,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -5709,7 +8139,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -5723,16 +8153,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -5751,13 +8181,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -5768,16 +8198,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -5791,16 +8221,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -5814,16 +8244,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -5837,7 +8267,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -5851,16 +8281,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -5874,16 +8304,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -5902,13 +8332,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -5919,16 +8349,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5942,16 +8372,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -5965,16 +8395,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -5988,7 +8418,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -5999,7 +8429,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">COUNTIF(I2:I29,"&gt;0")</f>
@@ -6031,11 +8461,11 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -6047,51 +8477,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
@@ -6126,13 +8556,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -6180,11 +8610,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -6196,51 +8626,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -6269,13 +8699,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4</v>
@@ -6307,13 +8737,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -6364,11 +8794,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -6381,51 +8811,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>6</v>
@@ -6457,13 +8887,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -6495,13 +8925,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -6552,44 +8982,44 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -6607,13 +9037,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -6631,13 +9061,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -6655,13 +9085,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -6679,13 +9109,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -6703,13 +9133,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -6727,13 +9157,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>10</v>
@@ -6751,13 +9181,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1.67</v>
@@ -6766,7 +9196,7 @@
         <v>1.67</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">ROUND(D9,0)</f>

--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="330">
   <si>
     <t xml:space="preserve">Nro</t>
   </si>
@@ -369,6 +369,15 @@
   </si>
   <si>
     <t xml:space="preserve">animacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recupracion agoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuperacion agosto</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -1047,7 +1056,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,7 +1072,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC107"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9800"/>
+        <bgColor rgb="FFFFC107"/>
       </patternFill>
     </fill>
     <fill>
@@ -1114,7 +1129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1163,14 +1178,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1183,15 +1190,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,64 +1211,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC107"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1372,7 +1322,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF8BC34A"/>
       <rgbColor rgb="FFFFC107"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF9800"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1396,18 +1346,18 @@
   </sheetPr>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,11 +3216,11 @@
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -3298,7 +3248,7 @@
         <v>45757</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>101</v>
@@ -3316,10 +3266,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3286,7 @@
         <f aca="false">SUM(C2:G2)</f>
         <v>3</v>
       </c>
-      <c r="M2" s="19" t="n">
+      <c r="M2" s="17" t="n">
         <f aca="false">SUM(K2,I2,H2)</f>
         <v>3</v>
       </c>
@@ -3360,9 +3310,9 @@
         <v>5</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="M3" s="19" t="n">
+        <v>309</v>
+      </c>
+      <c r="M3" s="17" t="n">
         <f aca="false">SUM(K3,I3,H3)</f>
         <v>5</v>
       </c>
@@ -3392,9 +3342,9 @@
         <v>5</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="M4" s="19" t="n">
+        <v>309</v>
+      </c>
+      <c r="M4" s="17" t="n">
         <f aca="false">SUM(K4,I4,H4)</f>
         <v>9</v>
       </c>
@@ -3424,9 +3374,9 @@
         <v>5</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="M5" s="19" t="n">
+        <v>309</v>
+      </c>
+      <c r="M5" s="17" t="n">
         <f aca="false">SUM(K5,I5,H5)</f>
         <v>11</v>
       </c>
@@ -3449,7 +3399,7 @@
         <f aca="false">SUM(C6:G6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="19" t="n">
+      <c r="M6" s="17" t="n">
         <f aca="false">SUM(K6,I6,H6)</f>
         <v>3</v>
       </c>
@@ -3469,7 +3419,7 @@
         <f aca="false">SUM(C7:G7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="19" t="n">
+      <c r="M7" s="17" t="n">
         <f aca="false">SUM(K7,I7,H7)</f>
         <v>0</v>
       </c>
@@ -3498,7 +3448,7 @@
         <f aca="false">SUM(C8:G8)</f>
         <v>7</v>
       </c>
-      <c r="M8" s="19" t="n">
+      <c r="M8" s="17" t="n">
         <f aca="false">SUM(K8,I8,H8)</f>
         <v>7</v>
       </c>
@@ -3522,15 +3472,15 @@
         <v>5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M9" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M9" s="17" t="n">
         <f aca="false">SUM(K9,I9,H9)</f>
         <v>6</v>
       </c>
@@ -3566,15 +3516,15 @@
         <v>5</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M10" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M10" s="17" t="n">
         <f aca="false">SUM(K10,I10,H10)</f>
         <v>18</v>
       </c>
@@ -3597,7 +3547,7 @@
         <f aca="false">SUM(C11:G11)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="19" t="n">
+      <c r="M11" s="17" t="n">
         <f aca="false">SUM(K11,I11,H11)</f>
         <v>1</v>
       </c>
@@ -3624,9 +3574,9 @@
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M12" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M12" s="17" t="n">
         <f aca="false">SUM(K12,I12,H12)</f>
         <v>4</v>
       </c>
@@ -3656,9 +3606,9 @@
         <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="M13" s="19" t="n">
+        <v>309</v>
+      </c>
+      <c r="M13" s="17" t="n">
         <f aca="false">SUM(K13,I13,H13)</f>
         <v>10</v>
       </c>
@@ -3694,9 +3644,9 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M14" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M14" s="17" t="n">
         <f aca="false">SUM(K14,I14,H14)</f>
         <v>11</v>
       </c>
@@ -3729,9 +3679,9 @@
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="M15" s="19" t="n">
+        <v>309</v>
+      </c>
+      <c r="M15" s="17" t="n">
         <f aca="false">SUM(K15,I15,H15)</f>
         <v>13</v>
       </c>
@@ -3751,7 +3701,7 @@
         <f aca="false">SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="19" t="n">
+      <c r="M16" s="17" t="n">
         <f aca="false">SUM(K16,I16,H16)</f>
         <v>0</v>
       </c>
@@ -3771,7 +3721,7 @@
         <f aca="false">SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="19" t="n">
+      <c r="M17" s="17" t="n">
         <f aca="false">SUM(K17,I17,H17)</f>
         <v>0</v>
       </c>
@@ -3797,7 +3747,7 @@
         <f aca="false">SUM(C18:G18)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="19" t="n">
+      <c r="M18" s="17" t="n">
         <f aca="false">SUM(K18,I18,H18)</f>
         <v>6</v>
       </c>
@@ -3830,15 +3780,15 @@
         <v>5</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M19" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M19" s="17" t="n">
         <f aca="false">SUM(K19,I19,H19)</f>
         <v>14</v>
       </c>
@@ -3861,7 +3811,7 @@
         <f aca="false">SUM(C20:G20)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="19" t="n">
+      <c r="M20" s="17" t="n">
         <f aca="false">SUM(K20,I20,H20)</f>
         <v>3</v>
       </c>
@@ -3884,7 +3834,7 @@
         <f aca="false">SUM(C21:G21)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="19" t="n">
+      <c r="M21" s="17" t="n">
         <f aca="false">SUM(K21,I21,H21)</f>
         <v>2</v>
       </c>
@@ -3907,7 +3857,7 @@
         <f aca="false">SUM(C22:G22)</f>
         <v>3</v>
       </c>
-      <c r="M22" s="19" t="n">
+      <c r="M22" s="17" t="n">
         <f aca="false">SUM(K22,I22,H22)</f>
         <v>3</v>
       </c>
@@ -3937,15 +3887,15 @@
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M23" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M23" s="17" t="n">
         <f aca="false">SUM(K23,I23,H23)</f>
         <v>12</v>
       </c>
@@ -3978,15 +3928,15 @@
         <v>5</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M24" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M24" s="17" t="n">
         <f aca="false">SUM(K24,I24,H24)</f>
         <v>15</v>
       </c>
@@ -4025,15 +3975,15 @@
         <v>5</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M25" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M25" s="17" t="n">
         <f aca="false">SUM(K25,I25,H25)</f>
         <v>37</v>
       </c>
@@ -4072,15 +4022,15 @@
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="M26" s="19" t="n">
+        <v>310</v>
+      </c>
+      <c r="M26" s="17" t="n">
         <f aca="false">SUM(K26,I26,H26)</f>
         <v>26</v>
       </c>
@@ -4103,14 +4053,14 @@
         <f aca="false">SUM(C27:G27)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="19" t="n">
+      <c r="M27" s="17" t="n">
         <f aca="false">SUM(K27,I27,H27)</f>
         <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">COUNTIF(C2:C27,"&gt;0")</f>
@@ -4153,11 +4103,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4173,19 +4123,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4152,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -4253,7 +4203,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -4290,7 +4240,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8</v>
@@ -4313,7 +4263,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8</v>
@@ -4336,7 +4286,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -4359,7 +4309,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4396,7 +4346,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -4419,7 +4369,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -4442,7 +4392,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -4493,7 +4443,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -4516,7 +4466,7 @@
         <v>66</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -4539,7 +4489,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4562,7 +4512,7 @@
         <v>72</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -4599,7 +4549,7 @@
         <v>79</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -4622,7 +4572,7 @@
         <v>82</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -4645,7 +4595,7 @@
         <v>85</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -4668,7 +4618,7 @@
         <v>88</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -4691,7 +4641,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -4740,13 +4690,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
@@ -4755,7 +4705,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="0" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,8 +4770,14 @@
       <c r="T1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="W1" s="0" t="s">
         <v>112</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45876</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,7 +4807,7 @@
         <f aca="false">ROUND(AVERAGE(C2,E2,J2),0)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="12" t="str">
+      <c r="L2" s="11" t="str">
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4860,7 +4817,7 @@
       <c r="O2" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O2,M2,K2),0)</f>
         <v>9</v>
       </c>
@@ -4870,11 +4827,10 @@
       <c r="R2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P2:R2),0)</f>
         <v>8</v>
       </c>
-      <c r="T2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -4883,25 +4839,25 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="12" t="n">
         <v>5</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -4912,7 +4868,7 @@
         <f aca="false">ROUND(AVERAGE(C3,E3,J3),0)</f>
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="str">
+      <c r="L3" s="11" t="str">
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -4922,7 +4878,7 @@
       <c r="O3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O3,M3,K3),0)</f>
         <v>5</v>
       </c>
@@ -4932,12 +4888,11 @@
       <c r="R3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P3:R3),0)</f>
         <v>7</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4957,7 +4912,7 @@
       <c r="G4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="12" t="n">
         <v>9</v>
       </c>
       <c r="J4" s="0" t="n">
@@ -4968,20 +4923,20 @@
         <f aca="false">ROUND(AVERAGE(C4,E4,J4),0)</f>
         <v>10</v>
       </c>
-      <c r="L4" s="12" t="str">
+      <c r="L4" s="11" t="str">
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M4" s="14" t="n">
+      <c r="M4" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="15" t="n">
+      <c r="N4" s="13" t="n">
         <v>45849</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O4,M4,K4),0)</f>
         <v>8</v>
       </c>
@@ -4991,11 +4946,10 @@
       <c r="R4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P4:R4),0)</f>
         <v>8</v>
       </c>
-      <c r="T4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -5004,25 +4958,25 @@
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="12" t="n">
         <v>11</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -5033,7 +4987,7 @@
         <f aca="false">ROUND(AVERAGE(C5,E5,J5),0)</f>
         <v>8</v>
       </c>
-      <c r="L5" s="12" t="str">
+      <c r="L5" s="11" t="str">
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5043,7 +4997,7 @@
       <c r="O5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O5,M5,K5),0)</f>
         <v>8</v>
       </c>
@@ -5053,12 +5007,11 @@
       <c r="R5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P5:R5),0)</f>
         <v>8</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5089,7 +5042,7 @@
         <f aca="false">ROUND(AVERAGE(C6,E6,J6),0)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="11" t="str">
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5099,7 +5052,7 @@
       <c r="O6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O6,M6,K6),0)</f>
         <v>1</v>
       </c>
@@ -5109,11 +5062,13 @@
       <c r="R6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P6:R6),0)</f>
         <v>6</v>
       </c>
-      <c r="T6" s="12"/>
+      <c r="U6" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -5138,11 +5093,11 @@
         <f aca="false">G7+I7/2</f>
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="n">
+      <c r="K7" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,J7),0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="14" t="str">
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5152,7 +5107,7 @@
       <c r="O7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="18" t="n">
+      <c r="P7" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O7,M7,K7),0)</f>
         <v>3</v>
       </c>
@@ -5162,15 +5117,19 @@
       <c r="R7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P7:R7),0)</f>
         <v>6</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
+      <c r="U7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -5202,7 +5161,7 @@
         <f aca="false">ROUND(AVERAGE(C8,E8,J8),0)</f>
         <v>8</v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="L8" s="11" t="str">
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5212,7 +5171,7 @@
       <c r="O8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O8,M8,K8),0)</f>
         <v>9</v>
       </c>
@@ -5222,7 +5181,7 @@
       <c r="R8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P8:R8),0)</f>
         <v>8</v>
       </c>
@@ -5237,19 +5196,19 @@
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="12" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="0" t="n">
@@ -5260,7 +5219,7 @@
         <f aca="false">ROUND(AVERAGE(C9,E9,J9),0)</f>
         <v>9</v>
       </c>
-      <c r="L9" s="12" t="str">
+      <c r="L9" s="11" t="str">
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5270,7 +5229,7 @@
       <c r="O9" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O9,M9,K9),0)</f>
         <v>10</v>
       </c>
@@ -5280,11 +5239,11 @@
       <c r="R9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P9:R9),0)</f>
         <v>9</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5304,7 +5263,7 @@
       <c r="G10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="12" t="n">
         <v>18</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -5315,7 +5274,7 @@
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>11</v>
       </c>
-      <c r="L10" s="12" t="str">
+      <c r="L10" s="11" t="str">
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5325,7 +5284,7 @@
       <c r="O10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O10,M10,K10),0)</f>
         <v>10</v>
       </c>
@@ -5335,11 +5294,11 @@
       <c r="R10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P10:R10),0)</f>
         <v>9</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5376,7 +5335,7 @@
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>7</v>
       </c>
-      <c r="L11" s="12" t="str">
+      <c r="L11" s="11" t="str">
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5386,7 +5345,7 @@
       <c r="O11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O11,M11,K11),0)</f>
         <v>6</v>
       </c>
@@ -5396,7 +5355,7 @@
       <c r="R11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P11:R11),0)</f>
         <v>7</v>
       </c>
@@ -5417,7 +5376,7 @@
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="12" t="n">
         <v>4</v>
       </c>
       <c r="J12" s="0" t="n">
@@ -5428,7 +5387,7 @@
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="12" t="str">
+      <c r="L12" s="11" t="str">
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5438,7 +5397,7 @@
       <c r="O12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O12,M12,K12),0)</f>
         <v>8</v>
       </c>
@@ -5448,7 +5407,7 @@
       <c r="R12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P12:R12),0)</f>
         <v>8</v>
       </c>
@@ -5466,19 +5425,19 @@
       <c r="D13" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="12" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="n">
@@ -5489,7 +5448,7 @@
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="12" t="str">
+      <c r="L13" s="11" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5499,7 +5458,7 @@
       <c r="O13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O13,M13,K13),0)</f>
         <v>8</v>
       </c>
@@ -5509,11 +5468,11 @@
       <c r="R13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P13:R13),0)</f>
         <v>8</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5533,7 +5492,7 @@
       <c r="G14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I14" s="14" t="n">
+      <c r="I14" s="12" t="n">
         <v>11</v>
       </c>
       <c r="J14" s="0" t="n">
@@ -5544,7 +5503,7 @@
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>11</v>
       </c>
-      <c r="L14" s="12" t="str">
+      <c r="L14" s="11" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5554,7 +5513,7 @@
       <c r="O14" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O14,M14,K14),0)</f>
         <v>9</v>
       </c>
@@ -5564,7 +5523,7 @@
       <c r="R14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P14:R14),0)</f>
         <v>9</v>
       </c>
@@ -5585,7 +5544,7 @@
       <c r="G15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="12" t="n">
         <v>13</v>
       </c>
       <c r="J15" s="0" t="n">
@@ -5595,7 +5554,7 @@
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>15</v>
       </c>
-      <c r="L15" s="12" t="str">
+      <c r="L15" s="11" t="str">
         <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5605,7 +5564,7 @@
       <c r="O15" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O15,M15,K15),0)</f>
         <v>8</v>
       </c>
@@ -5615,12 +5574,12 @@
       <c r="R15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P15:R15),0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="5" customFormat="true" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
@@ -5634,32 +5593,38 @@
         <v>5</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>45881</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
         <f aca="false">G16+I16/2</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L16" s="14" t="str">
+        <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+      <c r="M16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="L16" s="17" t="str">
-        <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>1</v>
+      <c r="N16" s="13" t="n">
+        <v>45881</v>
       </c>
       <c r="O16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="P16" s="18" t="n">
+      <c r="P16" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O16,M16,K16),0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>8</v>
@@ -5667,15 +5632,19 @@
       <c r="R16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P16:R16),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
+        <v>113</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -5687,27 +5656,32 @@
       <c r="C17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <f aca="false">MAX(F17,E17)</f>
-        <v>1</v>
+      <c r="E17" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>45881</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
         <f aca="false">G17+I17/2</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
-        <v>3</v>
-      </c>
-      <c r="L17" s="17" t="str">
+        <v>7</v>
+      </c>
+      <c r="L17" s="14" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>9</v>
@@ -5715,9 +5689,9 @@
       <c r="O17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="P17" s="18" t="n">
+      <c r="P17" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O17,M17,K17),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>8</v>
@@ -5725,14 +5699,20 @@
       <c r="R17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S17" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
+      <c r="S17" s="11" t="n">
+        <f aca="false">ROUND(AVERAGE(P17:R17),0)</f>
+        <v>7</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="16"/>
+      <c r="X17" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -5744,10 +5724,10 @@
       <c r="C18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="13" t="n">
         <v>45851</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -5764,7 +5744,7 @@
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>8</v>
       </c>
-      <c r="L18" s="12" t="str">
+      <c r="L18" s="11" t="str">
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5774,7 +5754,7 @@
       <c r="O18" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P18" s="13" t="n">
+      <c r="P18" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O18,M18,K18),0)</f>
         <v>9</v>
       </c>
@@ -5784,7 +5764,7 @@
       <c r="R18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S18" s="13" t="n">
+      <c r="S18" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P18:R18),0)</f>
         <v>8</v>
       </c>
@@ -5805,7 +5785,7 @@
       <c r="G19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I19" s="14" t="n">
+      <c r="I19" s="12" t="n">
         <v>14</v>
       </c>
       <c r="J19" s="0" t="n">
@@ -5816,7 +5796,7 @@
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="L19" s="12" t="str">
+      <c r="L19" s="11" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5826,7 +5806,7 @@
       <c r="O19" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P19" s="13" t="n">
+      <c r="P19" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O19,M19,K19),0)</f>
         <v>8</v>
       </c>
@@ -5836,11 +5816,11 @@
       <c r="R19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P19:R19),0)</f>
         <v>8</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5874,7 +5854,7 @@
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
         <v>10</v>
       </c>
-      <c r="L20" s="12" t="str">
+      <c r="L20" s="11" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5884,7 +5864,7 @@
       <c r="O20" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P20" s="13" t="n">
+      <c r="P20" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O20,M20,K20),0)</f>
         <v>10</v>
       </c>
@@ -5894,7 +5874,7 @@
       <c r="R20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S20" s="13" t="n">
+      <c r="S20" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P20:R20),0)</f>
         <v>9</v>
       </c>
@@ -5926,7 +5906,7 @@
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="12" t="str">
+      <c r="L21" s="11" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5936,7 +5916,7 @@
       <c r="O21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O21,M21,K21),0)</f>
         <v>1</v>
       </c>
@@ -5946,9 +5926,12 @@
       <c r="R21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P21:R21),0)</f>
         <v>6</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5978,7 +5961,7 @@
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
         <v>10</v>
       </c>
-      <c r="L22" s="12" t="str">
+      <c r="L22" s="11" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5988,7 +5971,7 @@
       <c r="O22" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P22" s="13" t="n">
+      <c r="P22" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O22,M22,K22),0)</f>
         <v>9</v>
       </c>
@@ -5998,7 +5981,7 @@
       <c r="R22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S22" s="13" t="n">
+      <c r="S22" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P22:R22),0)</f>
         <v>8</v>
       </c>
@@ -6020,7 +6003,7 @@
         <f aca="false">MAX(F24,E24)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="14" t="n">
+      <c r="I23" s="12" t="n">
         <v>12</v>
       </c>
       <c r="J23" s="0" t="n">
@@ -6031,7 +6014,7 @@
         <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
         <v>12</v>
       </c>
-      <c r="L23" s="12" t="str">
+      <c r="L23" s="11" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6041,7 +6024,7 @@
       <c r="O23" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P23" s="13" t="n">
+      <c r="P23" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O23,M23,K23),0)</f>
         <v>10</v>
       </c>
@@ -6051,7 +6034,7 @@
       <c r="R23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S23" s="13" t="n">
+      <c r="S23" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P23:R23),0)</f>
         <v>9</v>
       </c>
@@ -6072,7 +6055,7 @@
       <c r="G24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I24" s="12" t="n">
         <v>15</v>
       </c>
       <c r="J24" s="0" t="n">
@@ -6083,7 +6066,7 @@
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>12</v>
       </c>
-      <c r="L24" s="12" t="str">
+      <c r="L24" s="11" t="str">
         <f aca="false">IF(K24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6093,7 +6076,7 @@
       <c r="O24" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P24" s="13" t="n">
+      <c r="P24" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O24,M24,K24),0)</f>
         <v>10</v>
       </c>
@@ -6103,11 +6086,11 @@
       <c r="R24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S24" s="13" t="n">
+      <c r="S24" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P24:R24),0)</f>
         <v>9</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6127,7 +6110,7 @@
       <c r="G25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="12" t="n">
         <v>37</v>
       </c>
       <c r="J25" s="0" t="n">
@@ -6138,7 +6121,7 @@
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>15</v>
       </c>
-      <c r="L25" s="12" t="str">
+      <c r="L25" s="11" t="str">
         <f aca="false">IF(K25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6148,7 +6131,7 @@
       <c r="O25" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P25" s="13" t="n">
+      <c r="P25" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O25,M25,K25),0)</f>
         <v>11</v>
       </c>
@@ -6158,7 +6141,7 @@
       <c r="R25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S25" s="13" t="n">
+      <c r="S25" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P25:R25),0)</f>
         <v>10</v>
       </c>
@@ -6179,7 +6162,7 @@
       <c r="G26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="12" t="n">
         <v>26</v>
       </c>
       <c r="J26" s="0" t="n">
@@ -6190,7 +6173,7 @@
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="12" t="str">
+      <c r="L26" s="11" t="str">
         <f aca="false">IF(K26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6200,7 +6183,7 @@
       <c r="O26" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="13" t="n">
+      <c r="P26" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O26,M26,K26),0)</f>
         <v>11</v>
       </c>
@@ -6210,7 +6193,7 @@
       <c r="R26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S26" s="13" t="n">
+      <c r="S26" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P26:R26),0)</f>
         <v>9</v>
       </c>
@@ -6238,11 +6221,11 @@
         <f aca="false">G27+I27/2</f>
         <v>2.5</v>
       </c>
-      <c r="K27" s="16" t="n">
+      <c r="K27" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="17" t="str">
+      <c r="L27" s="14" t="str">
         <f aca="false">IF(K27&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -6252,7 +6235,7 @@
       <c r="O27" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P27" s="18" t="n">
+      <c r="P27" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O27,M27,K27),0)</f>
         <v>2</v>
       </c>
@@ -6262,41 +6245,45 @@
       <c r="R27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S27" s="13" t="n">
+      <c r="S27" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P27:R27),0)</f>
         <v>6</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+      <c r="U27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L27 T2:T6">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+  <conditionalFormatting sqref="L2:L27 T2:V6">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L27">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L28">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S27">
-    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>4</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6317,11 +6304,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -6333,22 +6320,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6362,10 +6349,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -6385,10 +6372,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -6408,10 +6395,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -6445,10 +6432,10 @@
         <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -6470,10 +6457,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -6490,10 +6477,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -6513,10 +6500,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -6538,10 +6525,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -6552,10 +6539,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -6566,10 +6553,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>3</v>
@@ -6586,10 +6573,10 @@
         <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6609,10 +6596,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -6632,10 +6619,10 @@
         <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -6655,10 +6642,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -6680,10 +6667,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -6700,10 +6687,10 @@
         <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -6723,10 +6710,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6748,10 +6735,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6762,10 +6749,10 @@
         <v>54</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -6776,10 +6763,10 @@
         <v>54</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -6796,10 +6783,10 @@
         <v>57</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -6819,10 +6806,10 @@
         <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -6842,10 +6829,10 @@
         <v>64</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -6867,10 +6854,10 @@
         <v>64</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -6887,10 +6874,10 @@
         <v>67</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7</v>
@@ -6910,10 +6897,10 @@
         <v>70</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -6935,10 +6922,10 @@
         <v>70</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -6955,10 +6942,10 @@
         <v>73</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -6978,10 +6965,10 @@
         <v>76</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -7001,10 +6988,10 @@
         <v>80</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -7024,10 +7011,10 @@
         <v>83</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>9</v>
@@ -7047,10 +7034,10 @@
         <v>86</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -7070,10 +7057,10 @@
         <v>89</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -7095,10 +7082,10 @@
         <v>89</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>9</v>
@@ -7109,10 +7096,10 @@
         <v>89</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -7129,10 +7116,10 @@
         <v>92</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>8</v>
@@ -7152,10 +7139,10 @@
         <v>95</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>6</v>
@@ -7184,11 +7171,11 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
@@ -7198,22 +7185,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7227,10 +7214,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -7264,10 +7251,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -7329,10 +7316,10 @@
         <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -7354,10 +7341,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -7368,10 +7355,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -7382,10 +7369,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -7396,10 +7383,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -7430,10 +7417,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -7467,10 +7454,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -7504,10 +7491,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -7527,10 +7514,10 @@
         <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -7550,10 +7537,10 @@
         <v>60</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -7573,10 +7560,10 @@
         <v>64</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -7624,10 +7611,10 @@
         <v>73</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -7647,10 +7634,10 @@
         <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -7670,10 +7657,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -7693,10 +7680,10 @@
         <v>83</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -7716,10 +7703,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -7739,10 +7726,10 @@
         <v>89</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -7764,10 +7751,10 @@
         <v>89</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -7784,10 +7771,10 @@
         <v>92</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -7807,10 +7794,10 @@
         <v>95</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>7</v>
@@ -7850,11 +7837,11 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
@@ -7866,22 +7853,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,10 +7882,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -7932,10 +7919,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -7955,10 +7942,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3</v>
@@ -8034,10 +8021,10 @@
         <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -8099,10 +8086,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -8122,10 +8109,10 @@
         <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -8159,10 +8146,10 @@
         <v>64</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -8184,10 +8171,10 @@
         <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -8204,10 +8191,10 @@
         <v>67</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -8227,10 +8214,10 @@
         <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -8250,10 +8237,10 @@
         <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -8287,10 +8274,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -8310,10 +8297,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -8335,10 +8322,10 @@
         <v>83</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -8355,10 +8342,10 @@
         <v>86</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -8378,10 +8365,10 @@
         <v>89</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -8401,10 +8388,10 @@
         <v>92</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -8429,7 +8416,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">COUNTIF(I2:I29,"&gt;0")</f>
@@ -8461,11 +8448,11 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8477,40 +8464,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,10 +8505,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
@@ -8559,10 +8546,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -8610,11 +8597,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8626,40 +8613,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,10 +8654,10 @@
         <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -8702,10 +8689,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4</v>
@@ -8740,10 +8727,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -8794,11 +8781,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8811,40 +8798,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8852,10 +8839,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>6</v>
@@ -8890,10 +8877,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -8928,10 +8915,10 @@
         <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -8982,30 +8969,30 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>101</v>
@@ -9016,10 +9003,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -9040,10 +9027,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -9064,10 +9051,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -9088,10 +9075,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -9112,10 +9099,10 @@
         <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -9136,10 +9123,10 @@
         <v>67</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -9160,10 +9147,10 @@
         <v>89</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>10</v>
@@ -9184,10 +9171,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1.67</v>
@@ -9196,7 +9183,7 @@
         <v>1.67</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">ROUND(D9,0)</f>

--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="330">
   <si>
     <t xml:space="preserve">Nro</t>
   </si>
@@ -65,12 +65,6 @@
     <t xml:space="preserve">notas pretente</t>
   </si>
   <si>
-    <t xml:space="preserve">nro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -107,6 +101,9 @@
     <t xml:space="preserve">48373431@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julian Gabriel</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t xml:space="preserve">lucianovel31@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursando</t>
   </si>
   <si>
     <t xml:space="preserve">1-volt y amp</t>
@@ -1129,7 +1129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1166,11 +1166,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1344,20 +1352,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="5" style="0" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="11" style="0" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,11 +1459,14 @@
       <c r="V2" s="2" t="n">
         <v>45855</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>12</v>
+      <c r="W2" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,43 +1474,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">COUNTIF(E3:P3,"P")</f>
@@ -1518,7 +1533,13 @@
         <v>9</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,43 +1547,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">COUNTIF(E4:P4,"P")</f>
@@ -1585,7 +1606,13 @@
         <v>10</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,40 +1620,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">COUNTIF(E5:P5,"P")</f>
@@ -1649,7 +1676,13 @@
         <v>8</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,40 +1690,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">COUNTIF(E6:P6,"P")</f>
@@ -1713,7 +1746,13 @@
         <v>8</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,43 +1760,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">COUNTIF(E7:P7,"P")</f>
@@ -1780,7 +1819,13 @@
         <v>1</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,43 +1833,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="5" t="n">
         <f aca="false">COUNTIF(E8:P8,"P")</f>
@@ -1847,7 +1892,13 @@
         <v>0</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,43 +1906,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="0" t="n">
         <f aca="false">COUNTIF(E9:P9,"P")</f>
@@ -1914,7 +1965,13 @@
         <v>10</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,43 +1979,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="false">COUNTIF(E10:P10,"P")</f>
@@ -1981,7 +2038,13 @@
         <v>10</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,40 +2052,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="0" t="n">
         <f aca="false">COUNTIF(E11:P11,"P")</f>
@@ -2045,7 +2108,13 @@
         <v>10</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,40 +2122,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="false">COUNTIF(E12:P12,"P")</f>
@@ -2109,7 +2178,13 @@
         <v>9</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,40 +2192,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="0" t="n">
         <f aca="false">COUNTIF(E13:P13,"P")</f>
@@ -2173,7 +2248,13 @@
         <v>10</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,40 +2262,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="0" t="n">
         <f aca="false">COUNTIF(E14:P14,"P")</f>
@@ -2237,7 +2318,13 @@
         <v>8</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,40 +2332,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="0" t="n">
         <f aca="false">COUNTIF(E15:P15,"P")</f>
@@ -2301,7 +2388,13 @@
         <v>7</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,40 +2402,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="0" t="n">
         <f aca="false">COUNTIF(E16:P16,"P")</f>
@@ -2365,7 +2458,13 @@
         <v>8</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,46 +2472,46 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="9" t="n">
+      <c r="N17" s="10" t="n">
         <v>0.548611111111111</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="5" t="n">
         <f aca="false">COUNTIF(E17:P17,"P")</f>
@@ -2435,7 +2534,13 @@
         <v>2</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,46 +2548,46 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="N18" s="10" t="n">
         <v>0.555555555555556</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="5" t="n">
         <f aca="false">COUNTIF(E18:P18,"P")</f>
@@ -2505,7 +2610,13 @@
         <v>2</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,40 +2624,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="0" t="n">
         <f aca="false">COUNTIF(E19:P19,"P")</f>
@@ -2569,7 +2680,13 @@
         <v>9</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,43 +2694,43 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="N20" s="11" t="n">
         <v>0.548611111111111</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="false">COUNTIF(E20:P20,"P")</f>
@@ -2636,7 +2753,13 @@
         <v>9</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,40 +2767,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="0" t="n">
         <f aca="false">COUNTIF(E21:P21,"P")</f>
@@ -2700,7 +2823,13 @@
         <v>10</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,43 +2837,43 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="10" t="n">
+      <c r="N22" s="11" t="n">
         <v>0.576388888888889</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="0" t="n">
         <f aca="false">COUNTIF(E22:P22,"P")</f>
@@ -2767,7 +2896,13 @@
         <v>1</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,40 +2910,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="0" t="n">
         <f aca="false">COUNTIF(E23:P23,"P")</f>
@@ -2831,7 +2966,13 @@
         <v>10</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,40 +2980,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q24" s="0" t="n">
         <f aca="false">COUNTIF(E24:P24,"P")</f>
@@ -2895,6 +3036,12 @@
         <v>8</v>
       </c>
       <c r="V24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2903,40 +3050,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="0" t="n">
         <f aca="false">COUNTIF(E25:P25,"P")</f>
@@ -2959,7 +3106,13 @@
         <v>9</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,40 +3120,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="0" t="n">
         <f aca="false">COUNTIF(E26:P26,"P")</f>
@@ -3023,7 +3176,13 @@
         <v>9</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,40 +3190,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q27" s="0" t="n">
         <f aca="false">COUNTIF(E27:P27,"P")</f>
@@ -3087,7 +3246,13 @@
         <v>10</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,46 +3260,46 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N28" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="N28" s="10" t="n">
         <v>0.548611111111111</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="5" t="n">
         <f aca="false">COUNTIF(E28:P28,"P")</f>
@@ -3157,7 +3322,16 @@
         <v>0</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,6 +3371,14 @@
         <f aca="false">COUNTIF(V3:V28,"p")</f>
         <v>15</v>
       </c>
+      <c r="W29" s="9"/>
+      <c r="X29" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X28,"p")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W30" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3216,15 +3398,15 @@
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N27" activeCellId="1" sqref="X29 N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="3" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="3" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="9.33"/>
   </cols>
   <sheetData>
@@ -3277,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -3286,7 +3468,7 @@
         <f aca="false">SUM(C2:G2)</f>
         <v>3</v>
       </c>
-      <c r="M2" s="17" t="n">
+      <c r="M2" s="19" t="n">
         <f aca="false">SUM(K2,I2,H2)</f>
         <v>3</v>
       </c>
@@ -3300,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">SUM(C3:G3)</f>
@@ -3312,7 +3494,7 @@
       <c r="J3" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="M3" s="17" t="n">
+      <c r="M3" s="19" t="n">
         <f aca="false">SUM(K3,I3,H3)</f>
         <v>5</v>
       </c>
@@ -3326,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -3344,7 +3526,7 @@
       <c r="J4" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="M4" s="17" t="n">
+      <c r="M4" s="19" t="n">
         <f aca="false">SUM(K4,I4,H4)</f>
         <v>9</v>
       </c>
@@ -3358,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3</v>
@@ -3376,7 +3558,7 @@
       <c r="J5" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="M5" s="19" t="n">
         <f aca="false">SUM(K5,I5,H5)</f>
         <v>11</v>
       </c>
@@ -3390,7 +3572,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -3399,7 +3581,7 @@
         <f aca="false">SUM(C6:G6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="19" t="n">
         <f aca="false">SUM(K6,I6,H6)</f>
         <v>3</v>
       </c>
@@ -3413,13 +3595,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">SUM(C7:G7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="17" t="n">
+      <c r="M7" s="19" t="n">
         <f aca="false">SUM(K7,I7,H7)</f>
         <v>0</v>
       </c>
@@ -3433,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -3448,7 +3630,7 @@
         <f aca="false">SUM(C8:G8)</f>
         <v>7</v>
       </c>
-      <c r="M8" s="17" t="n">
+      <c r="M8" s="19" t="n">
         <f aca="false">SUM(K8,I8,H8)</f>
         <v>7</v>
       </c>
@@ -3462,7 +3644,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">SUM(C9:G9)</f>
@@ -3480,7 +3662,7 @@
       <c r="L9" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M9" s="17" t="n">
+      <c r="M9" s="19" t="n">
         <f aca="false">SUM(K9,I9,H9)</f>
         <v>6</v>
       </c>
@@ -3494,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -3524,7 +3706,7 @@
       <c r="L10" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M10" s="17" t="n">
+      <c r="M10" s="19" t="n">
         <f aca="false">SUM(K10,I10,H10)</f>
         <v>18</v>
       </c>
@@ -3538,7 +3720,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3547,7 +3729,7 @@
         <f aca="false">SUM(C11:G11)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="17" t="n">
+      <c r="M11" s="19" t="n">
         <f aca="false">SUM(K11,I11,H11)</f>
         <v>1</v>
       </c>
@@ -3561,7 +3743,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -3576,7 +3758,7 @@
       <c r="L12" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M12" s="17" t="n">
+      <c r="M12" s="19" t="n">
         <f aca="false">SUM(K12,I12,H12)</f>
         <v>4</v>
       </c>
@@ -3590,7 +3772,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
@@ -3608,7 +3790,7 @@
       <c r="J13" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="M13" s="17" t="n">
+      <c r="M13" s="19" t="n">
         <f aca="false">SUM(K13,I13,H13)</f>
         <v>10</v>
       </c>
@@ -3622,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -3646,7 +3828,7 @@
       <c r="L14" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M14" s="17" t="n">
+      <c r="M14" s="19" t="n">
         <f aca="false">SUM(K14,I14,H14)</f>
         <v>11</v>
       </c>
@@ -3660,7 +3842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -3681,7 +3863,7 @@
       <c r="J15" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="19" t="n">
         <f aca="false">SUM(K15,I15,H15)</f>
         <v>13</v>
       </c>
@@ -3695,13 +3877,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="17" t="n">
+      <c r="M16" s="19" t="n">
         <f aca="false">SUM(K16,I16,H16)</f>
         <v>0</v>
       </c>
@@ -3715,13 +3897,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="17" t="n">
+      <c r="M17" s="19" t="n">
         <f aca="false">SUM(K17,I17,H17)</f>
         <v>0</v>
       </c>
@@ -3735,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -3747,7 +3929,7 @@
         <f aca="false">SUM(C18:G18)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="17" t="n">
+      <c r="M18" s="19" t="n">
         <f aca="false">SUM(K18,I18,H18)</f>
         <v>6</v>
       </c>
@@ -3761,7 +3943,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -3788,7 +3970,7 @@
       <c r="L19" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M19" s="17" t="n">
+      <c r="M19" s="19" t="n">
         <f aca="false">SUM(K19,I19,H19)</f>
         <v>14</v>
       </c>
@@ -3802,7 +3984,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -3811,7 +3993,7 @@
         <f aca="false">SUM(C20:G20)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="17" t="n">
+      <c r="M20" s="19" t="n">
         <f aca="false">SUM(K20,I20,H20)</f>
         <v>3</v>
       </c>
@@ -3825,7 +4007,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -3834,7 +4016,7 @@
         <f aca="false">SUM(C21:G21)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="17" t="n">
+      <c r="M21" s="19" t="n">
         <f aca="false">SUM(K21,I21,H21)</f>
         <v>2</v>
       </c>
@@ -3848,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -3857,7 +4039,7 @@
         <f aca="false">SUM(C22:G22)</f>
         <v>3</v>
       </c>
-      <c r="M22" s="17" t="n">
+      <c r="M22" s="19" t="n">
         <f aca="false">SUM(K22,I22,H22)</f>
         <v>3</v>
       </c>
@@ -3871,7 +4053,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -3895,7 +4077,7 @@
       <c r="L23" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M23" s="17" t="n">
+      <c r="M23" s="19" t="n">
         <f aca="false">SUM(K23,I23,H23)</f>
         <v>12</v>
       </c>
@@ -3909,7 +4091,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -3936,7 +4118,7 @@
       <c r="L24" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M24" s="17" t="n">
+      <c r="M24" s="19" t="n">
         <f aca="false">SUM(K24,I24,H24)</f>
         <v>15</v>
       </c>
@@ -3950,7 +4132,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -3983,7 +4165,7 @@
       <c r="L25" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M25" s="17" t="n">
+      <c r="M25" s="19" t="n">
         <f aca="false">SUM(K25,I25,H25)</f>
         <v>37</v>
       </c>
@@ -3997,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -4030,7 +4212,7 @@
       <c r="L26" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M26" s="17" t="n">
+      <c r="M26" s="19" t="n">
         <f aca="false">SUM(K26,I26,H26)</f>
         <v>26</v>
       </c>
@@ -4044,7 +4226,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3</v>
@@ -4053,7 +4235,7 @@
         <f aca="false">SUM(C27:G27)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="17" t="n">
+      <c r="M27" s="19" t="n">
         <f aca="false">SUM(K27,I27,H27)</f>
         <v>3</v>
       </c>
@@ -4103,11 +4285,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="X29 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4143,13 +4325,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>312</v>
@@ -4166,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4180,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4194,13 +4376,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>313</v>
@@ -4217,7 +4399,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4231,13 +4413,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>314</v>
@@ -4254,13 +4436,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>315</v>
@@ -4277,13 +4459,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>316</v>
@@ -4300,13 +4482,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>317</v>
@@ -4323,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4337,13 +4519,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>318</v>
@@ -4360,13 +4542,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>319</v>
@@ -4383,13 +4565,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>320</v>
@@ -4406,7 +4588,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4420,7 +4602,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4434,13 +4616,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>321</v>
@@ -4457,13 +4639,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>322</v>
@@ -4480,13 +4662,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>323</v>
@@ -4503,13 +4685,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>324</v>
@@ -4526,7 +4708,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4540,13 +4722,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>325</v>
@@ -4563,13 +4745,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>326</v>
@@ -4586,13 +4768,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>327</v>
@@ -4609,13 +4791,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>328</v>
@@ -4632,13 +4814,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>329</v>
@@ -4655,7 +4837,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -4692,11 +4874,11 @@
   </sheetPr>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T16" activeCellId="1" sqref="X29 T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
@@ -4785,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>8</v>
@@ -4803,11 +4985,11 @@
         <f aca="false">G2+I2/2</f>
         <v>6.5</v>
       </c>
-      <c r="K2" s="11" t="n">
+      <c r="K2" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,J2),0)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="11" t="str">
+      <c r="L2" s="13" t="str">
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4817,7 +4999,7 @@
       <c r="O2" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O2,M2,K2),0)</f>
         <v>9</v>
       </c>
@@ -4827,7 +5009,7 @@
       <c r="R2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P2:R2),0)</f>
         <v>8</v>
       </c>
@@ -4837,38 +5019,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="15" t="n">
         <v>45851</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="15" t="n">
         <v>45851</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="15" t="n">
         <v>45849</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="14" t="n">
         <v>5</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">G3+I3/2</f>
         <v>7.5</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="K3" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,J3),0)</f>
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="str">
+      <c r="L3" s="13" t="str">
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -4878,7 +5060,7 @@
       <c r="O3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O3,M3,K3),0)</f>
         <v>5</v>
       </c>
@@ -4888,7 +5070,7 @@
       <c r="R3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P3:R3),0)</f>
         <v>7</v>
       </c>
@@ -4901,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -4912,31 +5094,31 @@
       <c r="G4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="14" t="n">
         <v>9</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">G4+I4/2</f>
         <v>10.5</v>
       </c>
-      <c r="K4" s="11" t="n">
+      <c r="K4" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,J4),0)</f>
         <v>10</v>
       </c>
-      <c r="L4" s="11" t="str">
+      <c r="L4" s="13" t="str">
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="15" t="n">
         <v>45849</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O4,M4,K4),0)</f>
         <v>8</v>
       </c>
@@ -4946,7 +5128,7 @@
       <c r="R4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P4:R4),0)</f>
         <v>8</v>
       </c>
@@ -4956,38 +5138,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="15" t="n">
         <v>45851</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="15" t="n">
         <v>45851</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="15" t="n">
         <v>45849</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="14" t="n">
         <v>11</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">G5+I5/2</f>
         <v>11.5</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,J5),0)</f>
         <v>8</v>
       </c>
-      <c r="L5" s="11" t="str">
+      <c r="L5" s="13" t="str">
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4997,7 +5179,7 @@
       <c r="O5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O5,M5,K5),0)</f>
         <v>8</v>
       </c>
@@ -5007,7 +5189,7 @@
       <c r="R5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P5:R5),0)</f>
         <v>8</v>
       </c>
@@ -5020,7 +5202,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -5038,11 +5220,11 @@
         <f aca="false">G6+I6/2</f>
         <v>2.5</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,J6),0)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L6" s="13" t="str">
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5052,7 +5234,7 @@
       <c r="O6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O6,M6,K6),0)</f>
         <v>1</v>
       </c>
@@ -5062,12 +5244,12 @@
       <c r="R6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P6:R6),0)</f>
         <v>6</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,7 +5257,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>1</v>
@@ -5093,11 +5275,11 @@
         <f aca="false">G7+I7/2</f>
         <v>1</v>
       </c>
-      <c r="K7" s="14" t="n">
+      <c r="K7" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,J7),0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="14" t="str">
+      <c r="L7" s="16" t="str">
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5107,7 +5289,7 @@
       <c r="O7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="14" t="n">
+      <c r="P7" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(O7,M7,K7),0)</f>
         <v>3</v>
       </c>
@@ -5117,18 +5299,18 @@
       <c r="R7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S7" s="11" t="n">
+      <c r="S7" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P7:R7),0)</f>
         <v>6</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5318,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>8</v>
@@ -5157,11 +5339,11 @@
         <f aca="false">G8+I8/2</f>
         <v>9.5</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,J8),0)</f>
         <v>8</v>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="13" t="str">
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5171,7 +5353,7 @@
       <c r="O8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P8" s="11" t="n">
+      <c r="P8" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O8,M8,K8),0)</f>
         <v>9</v>
       </c>
@@ -5181,7 +5363,7 @@
       <c r="R8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S8" s="11" t="n">
+      <c r="S8" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P8:R8),0)</f>
         <v>8</v>
       </c>
@@ -5191,35 +5373,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="15" t="n">
         <v>45851</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="13" t="n">
+      <c r="H9" s="15" t="n">
         <v>45849</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="14" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">G9+I9/2</f>
         <v>10</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,J9),0)</f>
         <v>9</v>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="13" t="str">
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5229,7 +5411,7 @@
       <c r="O9" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O9,M9,K9),0)</f>
         <v>10</v>
       </c>
@@ -5239,7 +5421,7 @@
       <c r="R9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P9:R9),0)</f>
         <v>9</v>
       </c>
@@ -5252,7 +5434,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>7</v>
@@ -5263,18 +5445,18 @@
       <c r="G10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="14" t="n">
         <v>18</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">G10+I10/2</f>
         <v>18</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>11</v>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="13" t="str">
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5284,7 +5466,7 @@
       <c r="O10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P10" s="11" t="n">
+      <c r="P10" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O10,M10,K10),0)</f>
         <v>10</v>
       </c>
@@ -5294,7 +5476,7 @@
       <c r="R10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S10" s="11" t="n">
+      <c r="S10" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P10:R10),0)</f>
         <v>9</v>
       </c>
@@ -5307,7 +5489,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -5331,11 +5513,11 @@
         <f aca="false">G11+I11/2</f>
         <v>6.5</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>7</v>
       </c>
-      <c r="L11" s="11" t="str">
+      <c r="L11" s="13" t="str">
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5345,7 +5527,7 @@
       <c r="O11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O11,M11,K11),0)</f>
         <v>6</v>
       </c>
@@ -5355,7 +5537,7 @@
       <c r="R11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P11:R11),0)</f>
         <v>7</v>
       </c>
@@ -5365,7 +5547,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>6</v>
@@ -5376,18 +5558,18 @@
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="14" t="n">
         <v>4</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">G12+I12/2</f>
         <v>3</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="13" t="str">
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5397,7 +5579,7 @@
       <c r="O12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O12,M12,K12),0)</f>
         <v>8</v>
       </c>
@@ -5407,7 +5589,7 @@
       <c r="R12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P12:R12),0)</f>
         <v>8</v>
       </c>
@@ -5417,7 +5599,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>6</v>
@@ -5425,30 +5607,30 @@
       <c r="D13" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="15" t="n">
         <v>45851</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="13" t="n">
+      <c r="H13" s="15" t="n">
         <v>45849</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="14" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">G13+I13/2</f>
         <v>10</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="K13" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="13" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5458,7 +5640,7 @@
       <c r="O13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O13,M13,K13),0)</f>
         <v>8</v>
       </c>
@@ -5468,7 +5650,7 @@
       <c r="R13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P13:R13),0)</f>
         <v>8</v>
       </c>
@@ -5481,7 +5663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -5492,18 +5674,18 @@
       <c r="G14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="14" t="n">
         <v>11</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">G14+I14/2</f>
         <v>14.5</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="K14" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>11</v>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="L14" s="13" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5513,7 +5695,7 @@
       <c r="O14" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O14,M14,K14),0)</f>
         <v>9</v>
       </c>
@@ -5523,7 +5705,7 @@
       <c r="R14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P14:R14),0)</f>
         <v>9</v>
       </c>
@@ -5533,7 +5715,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9</v>
@@ -5544,17 +5726,17 @@
       <c r="G15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" s="14" t="n">
         <v>13</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>15</v>
       </c>
-      <c r="L15" s="11" t="str">
+      <c r="L15" s="13" t="str">
         <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5564,7 +5746,7 @@
       <c r="O15" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O15,M15,K15),0)</f>
         <v>8</v>
       </c>
@@ -5574,7 +5756,7 @@
       <c r="R15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P15:R15),0)</f>
         <v>8</v>
       </c>
@@ -5584,7 +5766,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>9</v>
@@ -5595,7 +5777,7 @@
       <c r="G16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H16" s="15" t="n">
+      <c r="H16" s="17" t="n">
         <v>45881</v>
       </c>
       <c r="I16" s="5" t="n">
@@ -5605,24 +5787,24 @@
         <f aca="false">G16+I16/2</f>
         <v>7</v>
       </c>
-      <c r="K16" s="14" t="n">
+      <c r="K16" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>7</v>
       </c>
-      <c r="L16" s="14" t="str">
+      <c r="L16" s="16" t="str">
         <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="N16" s="13" t="n">
+      <c r="N16" s="15" t="n">
         <v>45881</v>
       </c>
       <c r="O16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="P16" s="14" t="n">
+      <c r="P16" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(O16,M16,K16),0)</f>
         <v>5</v>
       </c>
@@ -5632,7 +5814,7 @@
       <c r="R16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S16" s="11" t="n">
+      <c r="S16" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P16:R16),0)</f>
         <v>7</v>
       </c>
@@ -5640,10 +5822,10 @@
         <v>113</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,21 +5833,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" s="13" t="n">
+      <c r="G17" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15" t="n">
         <v>45881</v>
       </c>
       <c r="I17" s="5" t="n">
@@ -5675,11 +5857,11 @@
         <f aca="false">G17+I17/2</f>
         <v>8</v>
       </c>
-      <c r="K17" s="14" t="n">
+      <c r="K17" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>7</v>
       </c>
-      <c r="L17" s="14" t="str">
+      <c r="L17" s="16" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5689,7 +5871,7 @@
       <c r="O17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="P17" s="14" t="n">
+      <c r="P17" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(O17,M17,K17),0)</f>
         <v>6</v>
       </c>
@@ -5699,19 +5881,19 @@
       <c r="R17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S17" s="11" t="n">
+      <c r="S17" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P17:R17),0)</f>
         <v>7</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="T17" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="U17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V17" s="16"/>
+      <c r="U17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="18"/>
       <c r="X17" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,15 +5901,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="15" t="n">
         <v>45851</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -5740,11 +5922,11 @@
         <f aca="false">G18+I18/2</f>
         <v>10</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>8</v>
       </c>
-      <c r="L18" s="11" t="str">
+      <c r="L18" s="13" t="str">
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5754,7 +5936,7 @@
       <c r="O18" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P18" s="11" t="n">
+      <c r="P18" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O18,M18,K18),0)</f>
         <v>9</v>
       </c>
@@ -5764,7 +5946,7 @@
       <c r="R18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S18" s="11" t="n">
+      <c r="S18" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P18:R18),0)</f>
         <v>8</v>
       </c>
@@ -5774,7 +5956,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>7</v>
@@ -5785,18 +5967,18 @@
       <c r="G19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="14" t="n">
         <v>14</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">G19+I19/2</f>
         <v>13</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="L19" s="11" t="str">
+      <c r="L19" s="13" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5806,7 +5988,7 @@
       <c r="O19" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P19" s="11" t="n">
+      <c r="P19" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O19,M19,K19),0)</f>
         <v>8</v>
       </c>
@@ -5816,7 +5998,7 @@
       <c r="R19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S19" s="11" t="n">
+      <c r="S19" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P19:R19),0)</f>
         <v>8</v>
       </c>
@@ -5829,7 +6011,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>10</v>
@@ -5850,11 +6032,11 @@
         <f aca="false">G20+I20/2</f>
         <v>11.5</v>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="K20" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
         <v>10</v>
       </c>
-      <c r="L20" s="11" t="str">
+      <c r="L20" s="13" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5864,7 +6046,7 @@
       <c r="O20" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P20" s="11" t="n">
+      <c r="P20" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O20,M20,K20),0)</f>
         <v>10</v>
       </c>
@@ -5874,7 +6056,7 @@
       <c r="R20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S20" s="11" t="n">
+      <c r="S20" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P20:R20),0)</f>
         <v>9</v>
       </c>
@@ -5884,7 +6066,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -5902,11 +6084,11 @@
         <f aca="false">G21+I21/2</f>
         <v>2</v>
       </c>
-      <c r="K21" s="11" t="n">
+      <c r="K21" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="11" t="str">
+      <c r="L21" s="13" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5916,7 +6098,7 @@
       <c r="O21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O21,M21,K21),0)</f>
         <v>1</v>
       </c>
@@ -5926,12 +6108,12 @@
       <c r="R21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P21:R21),0)</f>
         <v>6</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,7 +6121,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -5957,11 +6139,11 @@
         <f aca="false">G22+I22/2</f>
         <v>9.5</v>
       </c>
-      <c r="K22" s="11" t="n">
+      <c r="K22" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
         <v>10</v>
       </c>
-      <c r="L22" s="11" t="str">
+      <c r="L22" s="13" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5971,7 +6153,7 @@
       <c r="O22" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P22" s="11" t="n">
+      <c r="P22" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O22,M22,K22),0)</f>
         <v>9</v>
       </c>
@@ -5981,7 +6163,7 @@
       <c r="R22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S22" s="11" t="n">
+      <c r="S22" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P22:R22),0)</f>
         <v>8</v>
       </c>
@@ -5991,7 +6173,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
@@ -6003,18 +6185,18 @@
         <f aca="false">MAX(F24,E24)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="14" t="n">
         <v>12</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">G23+I23/2</f>
         <v>16</v>
       </c>
-      <c r="K23" s="11" t="n">
+      <c r="K23" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
         <v>12</v>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="13" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6024,7 +6206,7 @@
       <c r="O23" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P23" s="11" t="n">
+      <c r="P23" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O23,M23,K23),0)</f>
         <v>10</v>
       </c>
@@ -6034,7 +6216,7 @@
       <c r="R23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S23" s="11" t="n">
+      <c r="S23" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P23:R23),0)</f>
         <v>9</v>
       </c>
@@ -6044,7 +6226,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>9</v>
@@ -6055,18 +6237,18 @@
       <c r="G24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" s="14" t="n">
         <v>15</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">G24+I24/2</f>
         <v>17.5</v>
       </c>
-      <c r="K24" s="11" t="n">
+      <c r="K24" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>12</v>
       </c>
-      <c r="L24" s="11" t="str">
+      <c r="L24" s="13" t="str">
         <f aca="false">IF(K24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6076,7 +6258,7 @@
       <c r="O24" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P24" s="11" t="n">
+      <c r="P24" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O24,M24,K24),0)</f>
         <v>10</v>
       </c>
@@ -6086,7 +6268,7 @@
       <c r="R24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S24" s="11" t="n">
+      <c r="S24" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P24:R24),0)</f>
         <v>9</v>
       </c>
@@ -6099,7 +6281,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>9</v>
@@ -6110,18 +6292,18 @@
       <c r="G25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I25" s="12" t="n">
+      <c r="I25" s="14" t="n">
         <v>37</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">G25+I25/2</f>
         <v>27.5</v>
       </c>
-      <c r="K25" s="11" t="n">
+      <c r="K25" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>15</v>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="13" t="str">
         <f aca="false">IF(K25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6131,7 +6313,7 @@
       <c r="O25" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P25" s="11" t="n">
+      <c r="P25" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O25,M25,K25),0)</f>
         <v>11</v>
       </c>
@@ -6141,7 +6323,7 @@
       <c r="R25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S25" s="11" t="n">
+      <c r="S25" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P25:R25),0)</f>
         <v>10</v>
       </c>
@@ -6151,7 +6333,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
@@ -6162,18 +6344,18 @@
       <c r="G26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" s="14" t="n">
         <v>26</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">G26+I26/2</f>
         <v>23</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="11" t="str">
+      <c r="L26" s="13" t="str">
         <f aca="false">IF(K26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6183,7 +6365,7 @@
       <c r="O26" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="11" t="n">
+      <c r="P26" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(O26,M26,K26),0)</f>
         <v>11</v>
       </c>
@@ -6193,7 +6375,7 @@
       <c r="R26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S26" s="11" t="n">
+      <c r="S26" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P26:R26),0)</f>
         <v>9</v>
       </c>
@@ -6203,7 +6385,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>6</v>
@@ -6221,11 +6403,11 @@
         <f aca="false">G27+I27/2</f>
         <v>2.5</v>
       </c>
-      <c r="K27" s="14" t="n">
+      <c r="K27" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="14" t="str">
+      <c r="L27" s="16" t="str">
         <f aca="false">IF(K27&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -6235,7 +6417,7 @@
       <c r="O27" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P27" s="14" t="n">
+      <c r="P27" s="16" t="n">
         <f aca="false">ROUND(AVERAGE(O27,M27,K27),0)</f>
         <v>2</v>
       </c>
@@ -6245,18 +6427,18 @@
       <c r="R27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S27" s="11" t="n">
+      <c r="S27" s="13" t="n">
         <f aca="false">ROUND(AVERAGE(P27:R27),0)</f>
         <v>6</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6304,11 +6486,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="X29 G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -6343,10 +6525,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>121</v>
@@ -6366,10 +6548,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>123</v>
@@ -6389,10 +6571,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>124</v>
@@ -6412,7 +6594,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -6426,10 +6608,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>126</v>
@@ -6454,7 +6636,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>128</v>
@@ -6471,10 +6653,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>123</v>
@@ -6494,10 +6676,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>130</v>
@@ -6522,7 +6704,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>132</v>
@@ -6536,7 +6718,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>134</v>
@@ -6550,7 +6732,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>136</v>
@@ -6567,10 +6749,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>138</v>
@@ -6590,10 +6772,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>140</v>
@@ -6613,10 +6795,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>142</v>
@@ -6636,10 +6818,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>144</v>
@@ -6664,7 +6846,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>146</v>
@@ -6681,10 +6863,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>148</v>
@@ -6704,10 +6886,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>150</v>
@@ -6732,7 +6914,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>126</v>
@@ -6746,7 +6928,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>153</v>
@@ -6760,7 +6942,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>155</v>
@@ -6777,10 +6959,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>157</v>
@@ -6800,10 +6982,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>159</v>
@@ -6823,10 +7005,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>161</v>
@@ -6851,7 +7033,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>163</v>
@@ -6868,10 +7050,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>163</v>
@@ -6891,10 +7073,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>166</v>
@@ -6919,7 +7101,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>168</v>
@@ -6936,10 +7118,10 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>170</v>
@@ -6959,10 +7141,10 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>172</v>
@@ -6982,10 +7164,10 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>174</v>
@@ -7005,10 +7187,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>176</v>
@@ -7028,10 +7210,10 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>178</v>
@@ -7051,10 +7233,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>180</v>
@@ -7079,7 +7261,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>182</v>
@@ -7093,7 +7275,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>184</v>
@@ -7110,10 +7292,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>186</v>
@@ -7133,10 +7315,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>188</v>
@@ -7171,11 +7353,11 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="X29 G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
@@ -7208,10 +7390,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>190</v>
@@ -7231,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -7245,10 +7427,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>192</v>
@@ -7268,7 +7450,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -7282,7 +7464,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -7296,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -7310,10 +7492,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>194</v>
@@ -7338,7 +7520,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>196</v>
@@ -7352,7 +7534,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>198</v>
@@ -7366,7 +7548,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>200</v>
@@ -7380,7 +7562,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>202</v>
@@ -7397,7 +7579,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -7411,10 +7593,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>176</v>
@@ -7434,7 +7616,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -7448,10 +7630,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>204</v>
@@ -7471,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -7485,10 +7667,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>206</v>
@@ -7508,10 +7690,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>208</v>
@@ -7531,10 +7713,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>210</v>
@@ -7554,10 +7736,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>212</v>
@@ -7577,7 +7759,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -7591,7 +7773,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7605,10 +7787,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>214</v>
@@ -7628,10 +7810,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>216</v>
@@ -7651,10 +7833,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>218</v>
@@ -7674,10 +7856,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>220</v>
@@ -7697,10 +7879,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>222</v>
@@ -7720,10 +7902,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>138</v>
@@ -7748,7 +7930,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>225</v>
@@ -7765,10 +7947,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>227</v>
@@ -7788,10 +7970,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>229</v>
@@ -7837,11 +8019,11 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="1" sqref="X29 I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
@@ -7876,10 +8058,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>231</v>
@@ -7899,7 +8081,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -7913,10 +8095,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>233</v>
@@ -7936,10 +8118,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>235</v>
@@ -7959,7 +8141,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -7973,7 +8155,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -7987,7 +8169,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -8001,7 +8183,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -8015,10 +8197,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>237</v>
@@ -8038,7 +8220,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -8052,7 +8234,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -8066,7 +8248,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -8080,10 +8262,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>239</v>
@@ -8103,10 +8285,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>241</v>
@@ -8126,7 +8308,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -8140,10 +8322,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>243</v>
@@ -8168,7 +8350,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>245</v>
@@ -8185,10 +8367,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>247</v>
@@ -8208,10 +8390,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>248</v>
@@ -8231,10 +8413,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>250</v>
@@ -8254,7 +8436,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -8268,10 +8450,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>252</v>
@@ -8291,10 +8473,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>254</v>
@@ -8319,7 +8501,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>256</v>
@@ -8336,10 +8518,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>258</v>
@@ -8359,10 +8541,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>260</v>
@@ -8382,10 +8564,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>262</v>
@@ -8405,7 +8587,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -8448,11 +8630,11 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="X29 D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8502,7 +8684,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>274</v>
@@ -8543,7 +8725,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>276</v>
@@ -8597,11 +8779,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="X29 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8651,7 +8833,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>278</v>
@@ -8686,7 +8868,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>280</v>
@@ -8724,7 +8906,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>282</v>
@@ -8781,11 +8963,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="X29 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8836,7 +9018,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>284</v>
@@ -8874,7 +9056,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>286</v>
@@ -8912,7 +9094,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>288</v>
@@ -8969,11 +9151,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="X29 G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9000,7 +9182,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>292</v>
@@ -9024,7 +9206,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>294</v>
@@ -9048,7 +9230,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>296</v>
@@ -9072,7 +9254,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>298</v>
@@ -9096,7 +9278,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>292</v>
@@ -9120,7 +9302,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>296</v>
@@ -9144,7 +9326,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>302</v>
@@ -9168,7 +9350,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>304</v>

--- a/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
+++ b/inasistencias-6A-InstrumentalYsistElect/Alumnos-6A-InstrumentalYsistElect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="336">
   <si>
     <t xml:space="preserve">Nro</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">notas pretente</t>
   </si>
   <si>
+    <t xml:space="preserve">chorioco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Agustin</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thaiel Omar</t>
   </si>
   <si>
@@ -206,6 +212,9 @@
     <t xml:space="preserve">47866914@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julian uziel</t>
   </si>
   <si>
@@ -356,9 +365,6 @@
     <t xml:space="preserve">promedio</t>
   </si>
   <si>
-    <t xml:space="preserve">chorioco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barraza</t>
   </si>
   <si>
@@ -369,6 +375,18 @@
   </si>
   <si>
     <t xml:space="preserve">animacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Rx arinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-pantallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-instrumentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Rx cto</t>
   </si>
   <si>
     <t xml:space="preserve">recupracion agoso</t>
@@ -1129,7 +1147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1166,19 +1184,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,23 +1362,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC29" activeCellId="0" sqref="AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="7" min="5" style="0" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="5" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.65"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="21" min="11" style="0" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="11" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.51"/>
   </cols>
   <sheetData>
@@ -1468,49 +1478,61 @@
       <c r="Y2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="Z2" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45932</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="0" t="n">
         <f aca="false">COUNTIF(E3:P3,"P")</f>
@@ -1533,13 +1555,25 @@
         <v>9</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,43 +1581,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="0" t="n">
         <f aca="false">COUNTIF(E4:P4,"P")</f>
@@ -1606,13 +1640,25 @@
         <v>10</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,40 +1666,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="false">COUNTIF(E5:P5,"P")</f>
@@ -1676,13 +1722,25 @@
         <v>8</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,40 +1748,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="false">COUNTIF(E6:P6,"P")</f>
@@ -1746,13 +1804,25 @@
         <v>8</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,43 +1830,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="K7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="false">COUNTIF(E7:P7,"P")</f>
@@ -1819,13 +1889,22 @@
         <v>1</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,43 +1912,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="5" t="n">
         <f aca="false">COUNTIF(E8:P8,"P")</f>
@@ -1892,13 +1971,22 @@
         <v>0</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,43 +1994,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="0" t="n">
         <f aca="false">COUNTIF(E9:P9,"P")</f>
@@ -1965,13 +2053,25 @@
         <v>10</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1979,43 +2079,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="false">COUNTIF(E10:P10,"P")</f>
@@ -2038,13 +2138,25 @@
         <v>10</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,40 +2164,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="0" t="n">
         <f aca="false">COUNTIF(E11:P11,"P")</f>
@@ -2108,13 +2220,25 @@
         <v>10</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,40 +2246,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="false">COUNTIF(E12:P12,"P")</f>
@@ -2178,13 +2302,25 @@
         <v>9</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,40 +2328,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="0" t="n">
         <f aca="false">COUNTIF(E13:P13,"P")</f>
@@ -2248,13 +2384,25 @@
         <v>10</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,40 +2410,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="0" t="n">
         <f aca="false">COUNTIF(E14:P14,"P")</f>
@@ -2318,13 +2466,25 @@
         <v>8</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,40 +2492,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="0" t="n">
         <f aca="false">COUNTIF(E15:P15,"P")</f>
@@ -2388,13 +2548,25 @@
         <v>7</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,40 +2574,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="0" t="n">
         <f aca="false">COUNTIF(E16:P16,"P")</f>
@@ -2458,13 +2630,25 @@
         <v>8</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,46 +2656,46 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="N17" s="9" t="n">
         <v>0.548611111111111</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="5" t="n">
         <f aca="false">COUNTIF(E17:P17,"P")</f>
@@ -2534,13 +2718,22 @@
         <v>2</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,46 +2741,46 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="10" t="n">
+      <c r="N18" s="9" t="n">
         <v>0.555555555555556</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="5" t="n">
         <f aca="false">COUNTIF(E18:P18,"P")</f>
@@ -2610,13 +2803,22 @@
         <v>2</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,40 +2826,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="0" t="n">
         <f aca="false">COUNTIF(E19:P19,"P")</f>
@@ -2680,13 +2882,25 @@
         <v>9</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,43 +2908,43 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="11" t="n">
+        <v>64</v>
+      </c>
+      <c r="N20" s="10" t="n">
         <v>0.548611111111111</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="false">COUNTIF(E20:P20,"P")</f>
@@ -2753,13 +2967,25 @@
         <v>9</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,40 +2993,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="0" t="n">
         <f aca="false">COUNTIF(E21:P21,"P")</f>
@@ -2823,13 +3049,25 @@
         <v>10</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,43 +3075,43 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N22" s="10" t="n">
         <v>0.576388888888889</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="0" t="n">
         <f aca="false">COUNTIF(E22:P22,"P")</f>
@@ -2896,13 +3134,22 @@
         <v>1</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,40 +3157,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="0" t="n">
         <f aca="false">COUNTIF(E23:P23,"P")</f>
@@ -2966,13 +3213,25 @@
         <v>10</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,40 +3239,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="0" t="n">
         <f aca="false">COUNTIF(E24:P24,"P")</f>
@@ -3036,13 +3295,25 @@
         <v>8</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,40 +3321,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="0" t="n">
         <f aca="false">COUNTIF(E25:P25,"P")</f>
@@ -3106,13 +3377,25 @@
         <v>9</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,40 +3403,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="0" t="n">
         <f aca="false">COUNTIF(E26:P26,"P")</f>
@@ -3176,13 +3459,25 @@
         <v>9</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,40 +3485,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="0" t="n">
         <f aca="false">COUNTIF(E27:P27,"P")</f>
@@ -3246,13 +3541,25 @@
         <v>10</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,46 +3567,46 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N28" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="N28" s="9" t="n">
         <v>0.548611111111111</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="5" t="n">
         <f aca="false">COUNTIF(E28:P28,"P")</f>
@@ -3322,16 +3629,25 @@
         <v>0</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,14 +3687,23 @@
         <f aca="false">COUNTIF(V3:V28,"p")</f>
         <v>15</v>
       </c>
-      <c r="W29" s="9"/>
+      <c r="W29" s="1"/>
       <c r="X29" s="0" t="n">
         <f aca="false">COUNTIF(X3:X28,"p")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W30" s="12"/>
+      <c r="Z29" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z28,"p")</f>
+        <v>18</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA28,"p")</f>
+        <v>20</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC28,"p")</f>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3399,10 +3724,10 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="1" sqref="X29 N27"/>
+      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -3430,10 +3755,10 @@
         <v>45757</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="n">
         <v>45799</v>
@@ -3448,10 +3773,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -3468,7 +3793,7 @@
         <f aca="false">SUM(C2:G2)</f>
         <v>3</v>
       </c>
-      <c r="M2" s="19" t="n">
+      <c r="M2" s="17" t="n">
         <f aca="false">SUM(K2,I2,H2)</f>
         <v>3</v>
       </c>
@@ -3482,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">SUM(C3:G3)</f>
@@ -3492,9 +3817,9 @@
         <v>5</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="M3" s="19" t="n">
+        <v>315</v>
+      </c>
+      <c r="M3" s="17" t="n">
         <f aca="false">SUM(K3,I3,H3)</f>
         <v>5</v>
       </c>
@@ -3508,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
@@ -3524,9 +3849,9 @@
         <v>5</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="M4" s="19" t="n">
+        <v>315</v>
+      </c>
+      <c r="M4" s="17" t="n">
         <f aca="false">SUM(K4,I4,H4)</f>
         <v>9</v>
       </c>
@@ -3540,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3</v>
@@ -3556,9 +3881,9 @@
         <v>5</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="M5" s="19" t="n">
+        <v>315</v>
+      </c>
+      <c r="M5" s="17" t="n">
         <f aca="false">SUM(K5,I5,H5)</f>
         <v>11</v>
       </c>
@@ -3572,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -3581,7 +3906,7 @@
         <f aca="false">SUM(C6:G6)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="19" t="n">
+      <c r="M6" s="17" t="n">
         <f aca="false">SUM(K6,I6,H6)</f>
         <v>3</v>
       </c>
@@ -3595,13 +3920,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="false">SUM(C7:G7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="19" t="n">
+      <c r="M7" s="17" t="n">
         <f aca="false">SUM(K7,I7,H7)</f>
         <v>0</v>
       </c>
@@ -3615,7 +3940,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -3630,7 +3955,7 @@
         <f aca="false">SUM(C8:G8)</f>
         <v>7</v>
       </c>
-      <c r="M8" s="19" t="n">
+      <c r="M8" s="17" t="n">
         <f aca="false">SUM(K8,I8,H8)</f>
         <v>7</v>
       </c>
@@ -3644,7 +3969,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">SUM(C9:G9)</f>
@@ -3654,15 +3979,15 @@
         <v>5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M9" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M9" s="17" t="n">
         <f aca="false">SUM(K9,I9,H9)</f>
         <v>6</v>
       </c>
@@ -3676,7 +4001,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -3698,15 +4023,15 @@
         <v>5</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M10" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M10" s="17" t="n">
         <f aca="false">SUM(K10,I10,H10)</f>
         <v>18</v>
       </c>
@@ -3720,7 +4045,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3729,7 +4054,7 @@
         <f aca="false">SUM(C11:G11)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="19" t="n">
+      <c r="M11" s="17" t="n">
         <f aca="false">SUM(K11,I11,H11)</f>
         <v>1</v>
       </c>
@@ -3743,7 +4068,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -3756,9 +4081,9 @@
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M12" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M12" s="17" t="n">
         <f aca="false">SUM(K12,I12,H12)</f>
         <v>4</v>
       </c>
@@ -3772,7 +4097,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
@@ -3788,9 +4113,9 @@
         <v>5</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="M13" s="19" t="n">
+        <v>315</v>
+      </c>
+      <c r="M13" s="17" t="n">
         <f aca="false">SUM(K13,I13,H13)</f>
         <v>10</v>
       </c>
@@ -3804,7 +4129,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -3826,9 +4151,9 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M14" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M14" s="17" t="n">
         <f aca="false">SUM(K14,I14,H14)</f>
         <v>11</v>
       </c>
@@ -3842,7 +4167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -3861,9 +4186,9 @@
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="M15" s="19" t="n">
+        <v>315</v>
+      </c>
+      <c r="M15" s="17" t="n">
         <f aca="false">SUM(K15,I15,H15)</f>
         <v>13</v>
       </c>
@@ -3877,13 +4202,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">SUM(C16:G16)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="19" t="n">
+      <c r="M16" s="17" t="n">
         <f aca="false">SUM(K16,I16,H16)</f>
         <v>0</v>
       </c>
@@ -3897,13 +4222,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">SUM(C17:G17)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="19" t="n">
+      <c r="M17" s="17" t="n">
         <f aca="false">SUM(K17,I17,H17)</f>
         <v>0</v>
       </c>
@@ -3917,7 +4242,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
@@ -3929,7 +4254,7 @@
         <f aca="false">SUM(C18:G18)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="19" t="n">
+      <c r="M18" s="17" t="n">
         <f aca="false">SUM(K18,I18,H18)</f>
         <v>6</v>
       </c>
@@ -3943,7 +4268,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -3962,15 +4287,15 @@
         <v>5</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M19" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M19" s="17" t="n">
         <f aca="false">SUM(K19,I19,H19)</f>
         <v>14</v>
       </c>
@@ -3984,7 +4309,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -3993,7 +4318,7 @@
         <f aca="false">SUM(C20:G20)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="19" t="n">
+      <c r="M20" s="17" t="n">
         <f aca="false">SUM(K20,I20,H20)</f>
         <v>3</v>
       </c>
@@ -4007,7 +4332,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -4016,7 +4341,7 @@
         <f aca="false">SUM(C21:G21)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="19" t="n">
+      <c r="M21" s="17" t="n">
         <f aca="false">SUM(K21,I21,H21)</f>
         <v>2</v>
       </c>
@@ -4030,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -4039,7 +4364,7 @@
         <f aca="false">SUM(C22:G22)</f>
         <v>3</v>
       </c>
-      <c r="M22" s="19" t="n">
+      <c r="M22" s="17" t="n">
         <f aca="false">SUM(K22,I22,H22)</f>
         <v>3</v>
       </c>
@@ -4053,7 +4378,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -4069,15 +4394,15 @@
         <v>5</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M23" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M23" s="17" t="n">
         <f aca="false">SUM(K23,I23,H23)</f>
         <v>12</v>
       </c>
@@ -4091,7 +4416,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -4110,15 +4435,15 @@
         <v>5</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M24" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M24" s="17" t="n">
         <f aca="false">SUM(K24,I24,H24)</f>
         <v>15</v>
       </c>
@@ -4132,7 +4457,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -4157,15 +4482,15 @@
         <v>5</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M25" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M25" s="17" t="n">
         <f aca="false">SUM(K25,I25,H25)</f>
         <v>37</v>
       </c>
@@ -4179,7 +4504,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -4204,15 +4529,15 @@
         <v>5</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="M26" s="19" t="n">
+        <v>316</v>
+      </c>
+      <c r="M26" s="17" t="n">
         <f aca="false">SUM(K26,I26,H26)</f>
         <v>26</v>
       </c>
@@ -4226,7 +4551,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3</v>
@@ -4235,14 +4560,14 @@
         <f aca="false">SUM(C27:G27)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="19" t="n">
+      <c r="M27" s="17" t="n">
         <f aca="false">SUM(K27,I27,H27)</f>
         <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">COUNTIF(C2:C27,"&gt;0")</f>
@@ -4286,10 +4611,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="X29 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4305,19 +4630,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,16 +4650,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -4348,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -4362,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4376,16 +4701,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -4399,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4413,16 +4738,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8</v>
@@ -4436,16 +4761,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>8</v>
@@ -4459,16 +4784,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -4482,16 +4807,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4505,7 +4830,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4519,16 +4844,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -4542,16 +4867,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -4565,16 +4890,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -4588,7 +4913,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4602,7 +4927,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4616,16 +4941,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -4639,16 +4964,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -4662,16 +4987,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4685,16 +5010,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -4708,7 +5033,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4722,16 +5047,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -4745,16 +5070,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>10</v>
@@ -4768,16 +5093,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -4791,16 +5116,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -4814,16 +5139,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -4837,7 +5162,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -4872,23 +5197,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T16" activeCellId="1" sqref="X29 T16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y7" activeCellId="0" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="0" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="11" style="0" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="14" style="0" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="21" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="9.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,75 +5227,87 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="O1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="U1" s="2" t="n">
         <v>45876</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X1" s="2" t="n">
         <v>45876</v>
       </c>
+      <c r="Y1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>8</v>
@@ -4985,11 +5325,11 @@
         <f aca="false">G2+I2/2</f>
         <v>6.5</v>
       </c>
-      <c r="K2" s="13" t="n">
+      <c r="K2" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,J2),0)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="13" t="str">
+      <c r="L2" s="11" t="str">
         <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4999,7 +5339,7 @@
       <c r="O2" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O2,M2,K2),0)</f>
         <v>9</v>
       </c>
@@ -5009,9 +5349,12 @@
       <c r="R2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P2:R2),0)</f>
         <v>8</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,38 +5362,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="12" t="n">
         <v>5</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">G3+I3/2</f>
         <v>7.5</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,J3),0)</f>
         <v>4</v>
       </c>
-      <c r="L3" s="13" t="str">
+      <c r="L3" s="11" t="str">
         <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5060,7 +5403,7 @@
       <c r="O3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O3,M3,K3),0)</f>
         <v>5</v>
       </c>
@@ -5070,11 +5413,14 @@
       <c r="R3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P3:R3),0)</f>
         <v>7</v>
       </c>
       <c r="W3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5083,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -5094,31 +5440,31 @@
       <c r="G4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="12" t="n">
         <v>9</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">G4+I4/2</f>
         <v>10.5</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,J4),0)</f>
         <v>10</v>
       </c>
-      <c r="L4" s="13" t="str">
+      <c r="L4" s="11" t="str">
         <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M4" s="14" t="n">
+      <c r="M4" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="15" t="n">
+      <c r="N4" s="13" t="n">
         <v>45849</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O4,M4,K4),0)</f>
         <v>8</v>
       </c>
@@ -5128,9 +5474,12 @@
       <c r="R4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P4:R4),0)</f>
         <v>8</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,38 +5487,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="12" t="n">
         <v>11</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">G5+I5/2</f>
         <v>11.5</v>
       </c>
-      <c r="K5" s="13" t="n">
+      <c r="K5" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,J5),0)</f>
         <v>8</v>
       </c>
-      <c r="L5" s="13" t="str">
+      <c r="L5" s="11" t="str">
         <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5179,7 +5528,7 @@
       <c r="O5" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P5" s="13" t="n">
+      <c r="P5" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O5,M5,K5),0)</f>
         <v>8</v>
       </c>
@@ -5189,11 +5538,14 @@
       <c r="R5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P5:R5),0)</f>
         <v>8</v>
       </c>
       <c r="W5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5202,7 +5554,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -5220,11 +5572,11 @@
         <f aca="false">G6+I6/2</f>
         <v>2.5</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,J6),0)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L6" s="11" t="str">
         <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5234,7 +5586,7 @@
       <c r="O6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O6,M6,K6),0)</f>
         <v>1</v>
       </c>
@@ -5244,12 +5596,15 @@
       <c r="R6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P6:R6),0)</f>
         <v>6</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5612,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>1</v>
@@ -5275,11 +5630,11 @@
         <f aca="false">G7+I7/2</f>
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="n">
+      <c r="K7" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,J7),0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="16" t="str">
+      <c r="L7" s="14" t="str">
         <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5289,7 +5644,7 @@
       <c r="O7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="16" t="n">
+      <c r="P7" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O7,M7,K7),0)</f>
         <v>3</v>
       </c>
@@ -5299,18 +5654,18 @@
       <c r="R7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P7:R7),0)</f>
         <v>6</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,7 +5673,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>8</v>
@@ -5339,11 +5694,11 @@
         <f aca="false">G8+I8/2</f>
         <v>9.5</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,J8),0)</f>
         <v>8</v>
       </c>
-      <c r="L8" s="13" t="str">
+      <c r="L8" s="11" t="str">
         <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5353,7 +5708,7 @@
       <c r="O8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O8,M8,K8),0)</f>
         <v>9</v>
       </c>
@@ -5363,7 +5718,7 @@
       <c r="R8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P8:R8),0)</f>
         <v>8</v>
       </c>
@@ -5373,35 +5728,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="12" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">G9+I9/2</f>
         <v>10</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,J9),0)</f>
         <v>9</v>
       </c>
-      <c r="L9" s="13" t="str">
+      <c r="L9" s="11" t="str">
         <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5411,7 +5766,7 @@
       <c r="O9" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="13" t="n">
+      <c r="P9" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O9,M9,K9),0)</f>
         <v>10</v>
       </c>
@@ -5421,7 +5776,7 @@
       <c r="R9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P9:R9),0)</f>
         <v>9</v>
       </c>
@@ -5434,7 +5789,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>7</v>
@@ -5445,18 +5800,18 @@
       <c r="G10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="12" t="n">
         <v>18</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">G10+I10/2</f>
         <v>18</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,J10),0)</f>
         <v>11</v>
       </c>
-      <c r="L10" s="13" t="str">
+      <c r="L10" s="11" t="str">
         <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5466,7 +5821,7 @@
       <c r="O10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O10,M10,K10),0)</f>
         <v>10</v>
       </c>
@@ -5476,7 +5831,7 @@
       <c r="R10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P10:R10),0)</f>
         <v>9</v>
       </c>
@@ -5489,7 +5844,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>8</v>
@@ -5513,11 +5868,11 @@
         <f aca="false">G11+I11/2</f>
         <v>6.5</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,J11),0)</f>
         <v>7</v>
       </c>
-      <c r="L11" s="13" t="str">
+      <c r="L11" s="11" t="str">
         <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5527,7 +5882,7 @@
       <c r="O11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P11" s="13" t="n">
+      <c r="P11" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O11,M11,K11),0)</f>
         <v>6</v>
       </c>
@@ -5537,7 +5892,7 @@
       <c r="R11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P11:R11),0)</f>
         <v>7</v>
       </c>
@@ -5547,7 +5902,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>6</v>
@@ -5558,18 +5913,18 @@
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="12" t="n">
         <v>4</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">G12+I12/2</f>
         <v>3</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,J12),0)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="13" t="str">
+      <c r="L12" s="11" t="str">
         <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -5579,7 +5934,7 @@
       <c r="O12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P12" s="13" t="n">
+      <c r="P12" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O12,M12,K12),0)</f>
         <v>8</v>
       </c>
@@ -5589,7 +5944,7 @@
       <c r="R12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P12:R12),0)</f>
         <v>8</v>
       </c>
@@ -5599,7 +5954,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>6</v>
@@ -5607,30 +5962,30 @@
       <c r="D13" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="13" t="n">
         <v>45851</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="13" t="n">
         <v>45849</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="12" t="n">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">G13+I13/2</f>
         <v>10</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,J13),0)</f>
         <v>8</v>
       </c>
-      <c r="L13" s="13" t="str">
+      <c r="L13" s="11" t="str">
         <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5640,7 +5995,7 @@
       <c r="O13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O13,M13,K13),0)</f>
         <v>8</v>
       </c>
@@ -5650,7 +6005,7 @@
       <c r="R13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P13:R13),0)</f>
         <v>8</v>
       </c>
@@ -5663,7 +6018,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>9</v>
@@ -5674,18 +6029,18 @@
       <c r="G14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I14" s="14" t="n">
+      <c r="I14" s="12" t="n">
         <v>11</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">G14+I14/2</f>
         <v>14.5</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,J14),0)</f>
         <v>11</v>
       </c>
-      <c r="L14" s="13" t="str">
+      <c r="L14" s="11" t="str">
         <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5695,7 +6050,7 @@
       <c r="O14" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O14,M14,K14),0)</f>
         <v>9</v>
       </c>
@@ -5705,7 +6060,7 @@
       <c r="R14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P14:R14),0)</f>
         <v>9</v>
       </c>
@@ -5715,7 +6070,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>9</v>
@@ -5726,17 +6081,17 @@
       <c r="G15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="12" t="n">
         <v>13</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,J15),0)</f>
         <v>15</v>
       </c>
-      <c r="L15" s="13" t="str">
+      <c r="L15" s="11" t="str">
         <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5746,7 +6101,7 @@
       <c r="O15" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O15,M15,K15),0)</f>
         <v>8</v>
       </c>
@@ -5756,7 +6111,7 @@
       <c r="R15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P15:R15),0)</f>
         <v>8</v>
       </c>
@@ -5766,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>9</v>
@@ -5777,7 +6132,7 @@
       <c r="G16" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H16" s="17" t="n">
+      <c r="H16" s="15" t="n">
         <v>45881</v>
       </c>
       <c r="I16" s="5" t="n">
@@ -5787,24 +6142,24 @@
         <f aca="false">G16+I16/2</f>
         <v>7</v>
       </c>
-      <c r="K16" s="16" t="n">
+      <c r="K16" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C16,E16,J16),0)</f>
         <v>7</v>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="14" t="str">
         <f aca="false">IF(K16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="M16" s="14" t="n">
+      <c r="M16" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="N16" s="15" t="n">
+      <c r="N16" s="13" t="n">
         <v>45881</v>
       </c>
       <c r="O16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="P16" s="16" t="n">
+      <c r="P16" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O16,M16,K16),0)</f>
         <v>5</v>
       </c>
@@ -5814,18 +6169,18 @@
       <c r="R16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P16:R16),0)</f>
         <v>7</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,21 +6188,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15" t="n">
+      <c r="F17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="13" t="n">
         <v>45881</v>
       </c>
       <c r="I17" s="5" t="n">
@@ -5857,11 +6212,11 @@
         <f aca="false">G17+I17/2</f>
         <v>8</v>
       </c>
-      <c r="K17" s="16" t="n">
+      <c r="K17" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C17,E17,J17),0)</f>
         <v>7</v>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="14" t="str">
         <f aca="false">IF(K17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5871,7 +6226,7 @@
       <c r="O17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="P17" s="16" t="n">
+      <c r="P17" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O17,M17,K17),0)</f>
         <v>6</v>
       </c>
@@ -5881,19 +6236,19 @@
       <c r="R17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S17" s="13" t="n">
+      <c r="S17" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P17:R17),0)</f>
         <v>7</v>
       </c>
-      <c r="T17" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="U17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="V17" s="18"/>
+      <c r="T17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="16"/>
       <c r="X17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,15 +6256,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="13" t="n">
         <v>45851</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -5922,11 +6277,11 @@
         <f aca="false">G18+I18/2</f>
         <v>10</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C18,E18,J18),0)</f>
         <v>8</v>
       </c>
-      <c r="L18" s="13" t="str">
+      <c r="L18" s="11" t="str">
         <f aca="false">IF(K18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5936,7 +6291,7 @@
       <c r="O18" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P18" s="13" t="n">
+      <c r="P18" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O18,M18,K18),0)</f>
         <v>9</v>
       </c>
@@ -5946,7 +6301,7 @@
       <c r="R18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S18" s="13" t="n">
+      <c r="S18" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P18:R18),0)</f>
         <v>8</v>
       </c>
@@ -5956,7 +6311,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>7</v>
@@ -5967,18 +6322,18 @@
       <c r="G19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I19" s="14" t="n">
+      <c r="I19" s="12" t="n">
         <v>14</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">G19+I19/2</f>
         <v>13</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C19,E19,J19),0)</f>
         <v>7</v>
       </c>
-      <c r="L19" s="13" t="str">
+      <c r="L19" s="11" t="str">
         <f aca="false">IF(K19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -5988,7 +6343,7 @@
       <c r="O19" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P19" s="13" t="n">
+      <c r="P19" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O19,M19,K19),0)</f>
         <v>8</v>
       </c>
@@ -5998,7 +6353,7 @@
       <c r="R19" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P19:R19),0)</f>
         <v>8</v>
       </c>
@@ -6011,7 +6366,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>10</v>
@@ -6032,11 +6387,11 @@
         <f aca="false">G20+I20/2</f>
         <v>11.5</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C20,E20,J20),0)</f>
         <v>10</v>
       </c>
-      <c r="L20" s="13" t="str">
+      <c r="L20" s="11" t="str">
         <f aca="false">IF(K20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6046,7 +6401,7 @@
       <c r="O20" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P20" s="13" t="n">
+      <c r="P20" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O20,M20,K20),0)</f>
         <v>10</v>
       </c>
@@ -6056,7 +6411,7 @@
       <c r="R20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S20" s="13" t="n">
+      <c r="S20" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P20:R20),0)</f>
         <v>9</v>
       </c>
@@ -6066,7 +6421,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -6084,11 +6439,11 @@
         <f aca="false">G21+I21/2</f>
         <v>2</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C21,E21,J21),0)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="13" t="str">
+      <c r="L21" s="11" t="str">
         <f aca="false">IF(K21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -6098,7 +6453,7 @@
       <c r="O21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P21" s="13" t="n">
+      <c r="P21" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O21,M21,K21),0)</f>
         <v>1</v>
       </c>
@@ -6108,12 +6463,12 @@
       <c r="R21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P21:R21),0)</f>
         <v>6</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6121,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>9</v>
@@ -6139,11 +6494,11 @@
         <f aca="false">G22+I22/2</f>
         <v>9.5</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C22,E22,J22),0)</f>
         <v>10</v>
       </c>
-      <c r="L22" s="13" t="str">
+      <c r="L22" s="11" t="str">
         <f aca="false">IF(K22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6153,7 +6508,7 @@
       <c r="O22" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P22" s="13" t="n">
+      <c r="P22" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O22,M22,K22),0)</f>
         <v>9</v>
       </c>
@@ -6163,7 +6518,7 @@
       <c r="R22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S22" s="13" t="n">
+      <c r="S22" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P22:R22),0)</f>
         <v>8</v>
       </c>
@@ -6173,7 +6528,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
@@ -6185,18 +6540,18 @@
         <f aca="false">MAX(F24,E24)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="14" t="n">
+      <c r="I23" s="12" t="n">
         <v>12</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">G23+I23/2</f>
         <v>16</v>
       </c>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C23,E23,J23),0)</f>
         <v>12</v>
       </c>
-      <c r="L23" s="13" t="str">
+      <c r="L23" s="11" t="str">
         <f aca="false">IF(K23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6206,7 +6561,7 @@
       <c r="O23" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="P23" s="13" t="n">
+      <c r="P23" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O23,M23,K23),0)</f>
         <v>10</v>
       </c>
@@ -6216,7 +6571,7 @@
       <c r="R23" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S23" s="13" t="n">
+      <c r="S23" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P23:R23),0)</f>
         <v>9</v>
       </c>
@@ -6226,7 +6581,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>9</v>
@@ -6237,18 +6592,18 @@
       <c r="G24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I24" s="12" t="n">
         <v>15</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">G24+I24/2</f>
         <v>17.5</v>
       </c>
-      <c r="K24" s="13" t="n">
+      <c r="K24" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C24,E24,J24),0)</f>
         <v>12</v>
       </c>
-      <c r="L24" s="13" t="str">
+      <c r="L24" s="11" t="str">
         <f aca="false">IF(K24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6258,7 +6613,7 @@
       <c r="O24" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P24" s="13" t="n">
+      <c r="P24" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O24,M24,K24),0)</f>
         <v>10</v>
       </c>
@@ -6268,7 +6623,7 @@
       <c r="R24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S24" s="13" t="n">
+      <c r="S24" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P24:R24),0)</f>
         <v>9</v>
       </c>
@@ -6281,7 +6636,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>9</v>
@@ -6292,18 +6647,18 @@
       <c r="G25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="12" t="n">
         <v>37</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">G25+I25/2</f>
         <v>27.5</v>
       </c>
-      <c r="K25" s="13" t="n">
+      <c r="K25" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C25,E25,J25),0)</f>
         <v>15</v>
       </c>
-      <c r="L25" s="13" t="str">
+      <c r="L25" s="11" t="str">
         <f aca="false">IF(K25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6313,7 +6668,7 @@
       <c r="O25" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="P25" s="13" t="n">
+      <c r="P25" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O25,M25,K25),0)</f>
         <v>11</v>
       </c>
@@ -6323,7 +6678,7 @@
       <c r="R25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S25" s="13" t="n">
+      <c r="S25" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P25:R25),0)</f>
         <v>10</v>
       </c>
@@ -6333,7 +6688,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
@@ -6344,18 +6699,18 @@
       <c r="G26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="12" t="n">
         <v>26</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">G26+I26/2</f>
         <v>23</v>
       </c>
-      <c r="K26" s="13" t="n">
+      <c r="K26" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(C26,E26,J26),0)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="13" t="str">
+      <c r="L26" s="11" t="str">
         <f aca="false">IF(K26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -6365,7 +6720,7 @@
       <c r="O26" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="13" t="n">
+      <c r="P26" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(O26,M26,K26),0)</f>
         <v>11</v>
       </c>
@@ -6375,7 +6730,7 @@
       <c r="R26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S26" s="13" t="n">
+      <c r="S26" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P26:R26),0)</f>
         <v>9</v>
       </c>
@@ -6385,7 +6740,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>6</v>
@@ -6403,11 +6758,11 @@
         <f aca="false">G27+I27/2</f>
         <v>2.5</v>
       </c>
-      <c r="K27" s="16" t="n">
+      <c r="K27" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(C27,E27,J27),0)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="14" t="str">
         <f aca="false">IF(K27&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -6417,7 +6772,7 @@
       <c r="O27" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="P27" s="16" t="n">
+      <c r="P27" s="14" t="n">
         <f aca="false">ROUND(AVERAGE(O27,M27,K27),0)</f>
         <v>2</v>
       </c>
@@ -6427,18 +6782,18 @@
       <c r="R27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S27" s="13" t="n">
+      <c r="S27" s="11" t="n">
         <f aca="false">ROUND(AVERAGE(P27:R27),0)</f>
         <v>6</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6487,10 +6842,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="X29 G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
@@ -6502,22 +6857,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,16 +6880,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
@@ -6548,16 +6903,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -6571,16 +6926,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -6594,7 +6949,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -6608,16 +6963,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -6636,13 +6991,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -6653,16 +7008,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -6676,16 +7031,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -6704,13 +7059,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -6718,13 +7073,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -6732,13 +7087,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>3</v>
@@ -6749,16 +7104,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6772,16 +7127,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7</v>
@@ -6795,16 +7150,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -6818,16 +7173,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -6846,13 +7201,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
@@ -6863,16 +7218,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -6886,16 +7241,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -6914,13 +7269,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6928,13 +7283,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -6942,13 +7297,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -6959,16 +7314,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -6982,16 +7337,16 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -7005,16 +7360,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -7033,13 +7388,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4</v>
@@ -7050,16 +7405,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7</v>
@@ -7073,16 +7428,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>8</v>
@@ -7101,13 +7456,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>5</v>
@@ -7118,16 +7473,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -7141,16 +7496,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -7164,16 +7519,16 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>9</v>
@@ -7187,16 +7542,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>9</v>
@@ -7210,16 +7565,16 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>9</v>
@@ -7233,16 +7588,16 @@
         <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -7261,13 +7616,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>9</v>
@@ -7275,13 +7630,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>9</v>
@@ -7292,16 +7647,16 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>8</v>
@@ -7315,16 +7670,16 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>6</v>
@@ -7354,10 +7709,10 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="X29 G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
   </cols>
@@ -7367,22 +7722,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,16 +7745,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -7413,7 +7768,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -7427,16 +7782,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>10</v>
@@ -7450,7 +7805,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -7464,7 +7819,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -7478,7 +7833,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -7492,16 +7847,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -7520,13 +7875,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -7534,13 +7889,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -7548,13 +7903,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -7562,13 +7917,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -7579,7 +7934,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>3</v>
@@ -7593,16 +7948,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -7616,7 +7971,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -7630,16 +7985,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7</v>
@@ -7653,7 +8008,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -7667,16 +8022,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -7690,16 +8045,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>10</v>
@@ -7713,16 +8068,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>5</v>
@@ -7736,16 +8091,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -7759,7 +8114,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -7773,7 +8128,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -7787,16 +8142,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -7810,16 +8165,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -7833,16 +8188,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -7856,16 +8211,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -7879,16 +8234,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -7902,16 +8257,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -7930,13 +8285,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -7947,16 +8302,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -7970,16 +8325,16 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>7</v>
@@ -8020,10 +8375,10 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="1" sqref="X29 I29"/>
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
@@ -8035,22 +8390,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8058,16 +8413,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -8081,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -8095,16 +8450,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>6</v>
@@ -8118,16 +8473,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3</v>
@@ -8141,7 +8496,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -8155,7 +8510,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -8169,7 +8524,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -8183,7 +8538,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -8197,16 +8552,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -8220,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -8234,7 +8589,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -8248,7 +8603,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -8262,16 +8617,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -8285,16 +8640,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
@@ -8308,7 +8663,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -8322,16 +8677,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -8350,13 +8705,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>6</v>
@@ -8367,16 +8722,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -8390,16 +8745,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -8413,16 +8768,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -8436,7 +8791,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -8450,16 +8805,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -8473,16 +8828,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -8501,13 +8856,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -8518,16 +8873,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -8541,16 +8896,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -8564,16 +8919,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -8587,7 +8942,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -8598,7 +8953,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">COUNTIF(I2:I29,"&gt;0")</f>
@@ -8631,10 +8986,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="X29 D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8646,51 +9001,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3</v>
@@ -8725,13 +9080,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -8780,10 +9135,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="X29 D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8795,51 +9150,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -8868,13 +9223,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4</v>
@@ -8906,13 +9261,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -8964,10 +9319,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="X29 D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -8980,51 +9335,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>6</v>
@@ -9056,13 +9411,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>6</v>
@@ -9094,13 +9449,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -9152,43 +9507,43 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="X29 G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -9206,13 +9561,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -9230,13 +9585,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -9254,13 +9609,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -9278,13 +9633,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -9302,13 +9657,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -9326,13 +9681,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>10</v>
@@ -9350,13 +9705,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1.67</v>
@@ -9365,7 +9720,7 @@
         <v>1.67</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">ROUND(D9,0)</f>
